--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>Topics</t>
   </si>
@@ -188,6 +188,453 @@
   </si>
   <si>
     <t>org.mockito.ArgumentCaptor&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Tutorial 1</t>
+  </si>
+  <si>
+    <t>http://www.tutorialspoint.com/easymock/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pdf version of above: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\EasyMock\1_easymock_tutorial.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>What is Mocking</t>
+  </si>
+  <si>
+    <t>Mocking is a way to test the functionality of a class in isolation. Mocking does not require a database connection or properties file read or file server read to test a functionality. Mock objects do the mocking of the real service. A mock object returns a dummy data corresponding to some dummy input passed to it</t>
+  </si>
+  <si>
+    <t>Benefits of EasyMock</t>
+  </si>
+  <si>
+    <t>No Handwriting – No need to write mock objects on your own</t>
+  </si>
+  <si>
+    <t>Refactoring Safe – Renaming interface method names or reordering
+parameters will not break the test code as Mocks are created at runtime</t>
+  </si>
+  <si>
+    <t>Return value support – Supports return values</t>
+  </si>
+  <si>
+    <t>Exception support – Supports exceptions</t>
+  </si>
+  <si>
+    <t>Order check support – Supports check on order of method calls</t>
+  </si>
+  <si>
+    <t>Annotation support – Supports creating mocks using annotation</t>
+  </si>
+  <si>
+    <t>org.easymock.EasyMock.createMock(StockService.class);</t>
+  </si>
+  <si>
+    <t>EasyMock created a mock of stock service</t>
+  </si>
+  <si>
+    <t>Mock implementation of getPrice method of stockService interface. For googleStock, return 50.00 as price</t>
+  </si>
+  <si>
+    <t>EasyMock prepares the Mock object to be ready so that it can be used for testing</t>
+  </si>
+  <si>
+    <t>org.easymock.EasyMock.replay(stockServiceMock);</t>
+  </si>
+  <si>
+    <t>org.easymock.EasyMock.expect(stockServiceMock. getPrice(googleStock)) .andReturn(50.00);</t>
+  </si>
+  <si>
+    <t>JavaPrep\Junit\1.junit_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>Tutorial 2</t>
+  </si>
+  <si>
+    <t>JavaPrep\Junit\2_JUnit-Tutorial.pdf</t>
+  </si>
+  <si>
+    <t>Testing is the process of checking the functionality of the application whether it is working as per requirements and to ensure that at developer level, unit testing comes into picture. Unit testing is the testing of single entity (class or method). Unit testing is very essential to every software company to give a quality product to their customers</t>
+  </si>
+  <si>
+    <t>What is unit testing</t>
+  </si>
+  <si>
+    <t>What is Junit</t>
+  </si>
+  <si>
+    <t>JUnit is a unit testing framework for the Java Programming Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUnit is an open source framework which is used for writing &amp; running tests.
+Provides Annotation to identify the test methods. 
+Provides Assertions for testing expected results. 
+Provides Test runners for running tests. 
+JUnit tests allow you to write code faster which increasing quality 
+JUnit is elegantly simple. It is less complex &amp; takes less time. </t>
+  </si>
+  <si>
+    <t>JUnit tests can be run automatically and they check their own results and provide immediate feedback. There's no need to manually comb through a report of test results. 
+JUnit tests can be organized into test suites containing test cases and even other test suites. 
+Junit shows test progress in a bar that is green if test is going fine and it turns red when a test fails.</t>
+  </si>
+  <si>
+    <t>How many test cases for a piece of code</t>
+  </si>
+  <si>
+    <t>There must be at least two test cases for each requirement: one positive test and one negative test. If a requirement has sub-requirements, each sub-requirement must have at least two test cases as positive and negative.</t>
+  </si>
+  <si>
+    <t>HelloWorld example</t>
+  </si>
+  <si>
+    <t>import org.junit.Assert;
+import org.junit.Test;
+import org.junit.runner.JUnitCore;
+import org.junit.runner.Result;
+import org.junit.runner.notification.Failure;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class HelloWorld {
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ public void helloWorld() {
+  String str = "Welcome to Junit";
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assert.assertEquals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">("Welcome to Junit", str);
+ }
+ public static void main(String[] args) {
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JUnitCore.runClasses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(HelloWorld.class);
+  for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Failure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> failure : result.getFailures()) {
+   System.out.println(failure.toString());
+  }
+  System.out.println(result.wasSuccessful());
+ }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Features in Junit</t>
+  </si>
+  <si>
+    <t>1. Fixtures
+2. Test suites
+3. Test runners
+4. JUnit classes</t>
+  </si>
+  <si>
+    <t>Fixures</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fixtures is a fixed state of a set of objects used as a baseline for running tests. The purpose of a test fixture is to ensure that there is a well known and fixed environment in which tests are run so that results are repeatable. It includes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setup()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tearDown()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/Junit</t>
+  </si>
+  <si>
+    <t>Test case without annotation</t>
+  </si>
+  <si>
+    <t>import junit.framework.TestCase;
+public class SetupMethod extends TestCase {
+ private int value1;  private int value2;
+ @Override
+ protected void setUp() throws Exception {
+  value1 = 10;   value2 = 20;
+ }
+ public void testAdd() {
+  int result = value1 + value2;
+  assertTrue("success", result == 30);
+ }
+}</t>
+  </si>
+  <si>
+    <t>Test suite</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test suite means bundle a few unit test cases and run it together. In JUnit, both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@org.junit.runner.RunWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@org.junit.runners.Suite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@org.junit.runners.Suite.SuiteClasses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation are used to run the suite test. Here is an example which uses TestJunit1 &amp; TestJunit2 test classes</t>
+    </r>
+  </si>
+  <si>
+    <t>Example of Test suite</t>
+  </si>
+  <si>
+    <t>import org.junit.Assert; import org.junit.Test;
+public class TestJunit1 {
+ @Test
+ public void test1() {
+  System.out.println("inside test1()");  Assert.assertEquals("Testing", "Testing"); }
+}
+public class TestJunit2 {
+ @Test
+ public void test2() {  System.out.println("inside test2()");  Assert.assertEquals("Testing", "Testing"); }
+}
+import org.junit.runner.RunWith;
+import org.junit.runners.Suite;
+import org.junit.runners.Suite.SuiteClasses;
+@RunWith(Suite.class)
+@SuiteClasses({ TestJunit1.class, TestJunit2.class })
+public class JunitTestSuite {
+}</t>
+  </si>
+  <si>
+    <t>Run above test suite(JunitTestSuite)</t>
+  </si>
+  <si>
+    <t>import org.junit.runner.JUnitCore; import org.junit.runner.Result; import org.junit.runner.notification.Failure;
+public class App {
+ public static void main(String[] args) {
+  Result result = JUnitCore.runClasses(JunitTestSuite.class);
+  for (Failure failure : result.getFailures()) {   System.out.println(failure.toString());  }
+  System.out.println(result.wasSuccessful());
+ }
+}</t>
+  </si>
+  <si>
+    <t>Test runner</t>
+  </si>
+  <si>
+    <t>Test runner is used for executing the test cases. Above code is an example to run JunitTestSuite</t>
+  </si>
+  <si>
+    <t>JUnit classes</t>
+  </si>
+  <si>
+    <t>JUnit classes are important classes which is used in writing and testing JUnits.</t>
   </si>
 </sst>
 </file>
@@ -275,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -339,13 +786,24 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
       <top style="medium">
         <color theme="9" tint="-0.499984740745262"/>
       </top>
       <bottom style="medium">
         <color theme="9" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -356,7 +814,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -365,6 +823,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,16 +854,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,7 +1158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,20 +1208,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="128.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="128.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -753,40 +1229,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="75">
+      <c r="A16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="240">
+      <c r="A17" s="14"/>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="225">
+      <c r="A20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="315">
+      <c r="A22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="135">
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="A8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="2" max="2" width="123.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="123.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -794,19 +1429,114 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'Easy Mock'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -816,9 +1546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -842,7 +1572,7 @@
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -850,19 +1580,19 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -871,7 +1601,7 @@
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -879,7 +1609,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -887,29 +1617,29 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -917,7 +1647,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -925,23 +1655,23 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="105">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -955,6 +1685,7 @@
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -982,10 +1713,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -841,6 +841,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -852,12 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1211,8 +1211,8 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1259,10 +1259,10 @@
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="14"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="14"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1473,31 +1473,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1713,10 +1713,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Easy Mock" sheetId="3" r:id="rId3"/>
     <sheet name="Mockito" sheetId="4" r:id="rId4"/>
     <sheet name="PowerMock" sheetId="5" r:id="rId5"/>
+    <sheet name="Spring+Junit" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>Topics</t>
   </si>
@@ -635,6 +636,27 @@
   </si>
   <si>
     <t>JUnit classes are important classes which is used in writing and testing JUnits.</t>
+  </si>
+  <si>
+    <t>Spring Junit</t>
+  </si>
+  <si>
+    <t>Junit Spring Integration</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/unittest/junit-spring-integration-example/</t>
+  </si>
+  <si>
+    <t>https://examples.javacodegeeks.com/core-java/junit/spring-junit-test-example/</t>
+  </si>
+  <si>
+    <t>http://docs.spring.io/spring-batch/reference/html/testing.html</t>
+  </si>
+  <si>
+    <t>Mkyong</t>
+  </si>
+  <si>
+    <t>http://www.mkyong.com/tutorials/junit-tutorials/</t>
   </si>
 </sst>
 </file>
@@ -722,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -806,6 +828,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,7 +845,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -833,6 +864,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +893,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1154,11 +1190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,12 +1231,18 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Junit!A1" display="Junit"/>
     <hyperlink ref="A3" location="'Easy Mock'!A1" display="Easy Mock"/>
     <hyperlink ref="A4" location="Mockito!A1" display="Mockito"/>
     <hyperlink ref="A5" location="PowerMock!A1" display="Power Mock"/>
+    <hyperlink ref="A6" location="'Spring+Junit'!A1" display="Spring Junit"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1211,8 +1253,8 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1230,10 +1272,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1251,25 +1293,33 @@
         <v>49</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1288,7 +1338,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1296,7 +1346,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
@@ -1310,7 +1360,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1318,7 +1368,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
@@ -1400,9 +1450,10 @@
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1430,13 +1481,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1444,17 +1495,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -1465,7 +1516,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1473,31 +1524,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1566,10 +1617,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -1595,10 +1646,10 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
@@ -1713,10 +1764,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1728,4 +1779,84 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
+    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B1" location="'Spring+Junit'!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
   <si>
     <t>Topics</t>
   </si>
@@ -657,6 +657,42 @@
   </si>
   <si>
     <t>http://www.mkyong.com/tutorials/junit-tutorials/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Test</t>
+  </si>
+  <si>
+    <t>The Test annotation tells JUnit that the public void method to which it is attached can be run as a test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before</t>
+  </si>
+  <si>
+    <t>Several tests need similar objects created before they can run. Annotating a public void method with @Before causes that method to be run before each Test method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @After</t>
+  </si>
+  <si>
+    <t>If you allocate external resources in a Before method you need to release them after the test runs. Annotating a public void method with @After causes that method to be run after the Test method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @BeforeClass</t>
+  </si>
+  <si>
+    <t>Annotating a public static void method with @BeforeClass causes it to be run once before any of the test methods in the class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @AfterClass</t>
+  </si>
+  <si>
+    <t>This will perform the method after all tests have finished. This can be used to perform clean-up activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Ignore</t>
+  </si>
+  <si>
+    <t>The Ignore annotation is used to ignore the test and that test will not be executed</t>
   </si>
 </sst>
 </file>
@@ -845,7 +881,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -864,6 +900,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1250,11 +1289,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1272,10 +1311,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1303,23 +1342,23 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1338,7 +1377,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1346,7 +1385,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
@@ -1360,7 +1399,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1368,7 +1407,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
@@ -1435,6 +1474,54 @@
       </c>
       <c r="B25" s="6" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1481,13 +1568,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1495,17 +1582,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -1516,7 +1603,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1524,31 +1611,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1617,10 +1704,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -1646,10 +1733,10 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
@@ -1764,10 +1851,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1805,10 +1892,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1819,28 +1906,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -291,11 +291,6 @@
 JUnit is elegantly simple. It is less complex &amp; takes less time. </t>
   </si>
   <si>
-    <t>JUnit tests can be run automatically and they check their own results and provide immediate feedback. There's no need to manually comb through a report of test results. 
-JUnit tests can be organized into test suites containing test cases and even other test suites. 
-Junit shows test progress in a bar that is green if test is going fine and it turns red when a test fails.</t>
-  </si>
-  <si>
     <t>How many test cases for a piece of code</t>
   </si>
   <si>
@@ -506,7 +501,175 @@
     <t>Test case without annotation</t>
   </si>
   <si>
-    <t>import junit.framework.TestCase;
+    <t>Test suite</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test suite means bundle a few unit test cases and run it together. In JUnit, both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@org.junit.runner.RunWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@org.junit.runners.Suite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@org.junit.runners.Suite.SuiteClasses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation are used to run the suite test. Here is an example which uses TestJunit1 &amp; TestJunit2 test classes</t>
+    </r>
+  </si>
+  <si>
+    <t>Example of Test suite</t>
+  </si>
+  <si>
+    <t>Run above test suite(JunitTestSuite)</t>
+  </si>
+  <si>
+    <t>import org.junit.runner.JUnitCore; import org.junit.runner.Result; import org.junit.runner.notification.Failure;
+public class App {
+ public static void main(String[] args) {
+  Result result = JUnitCore.runClasses(JunitTestSuite.class);
+  for (Failure failure : result.getFailures()) {   System.out.println(failure.toString());  }
+  System.out.println(result.wasSuccessful());
+ }
+}</t>
+  </si>
+  <si>
+    <t>Test runner</t>
+  </si>
+  <si>
+    <t>Test runner is used for executing the test cases. Above code is an example to run JunitTestSuite</t>
+  </si>
+  <si>
+    <t>JUnit classes</t>
+  </si>
+  <si>
+    <t>JUnit classes are important classes which is used in writing and testing JUnits.</t>
+  </si>
+  <si>
+    <t>Spring Junit</t>
+  </si>
+  <si>
+    <t>Junit Spring Integration</t>
+  </si>
+  <si>
+    <t>https://www.mkyong.com/unittest/junit-spring-integration-example/</t>
+  </si>
+  <si>
+    <t>https://examples.javacodegeeks.com/core-java/junit/spring-junit-test-example/</t>
+  </si>
+  <si>
+    <t>http://docs.spring.io/spring-batch/reference/html/testing.html</t>
+  </si>
+  <si>
+    <t>Mkyong</t>
+  </si>
+  <si>
+    <t>http://www.mkyong.com/tutorials/junit-tutorials/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @After</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @BeforeClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @AfterClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Ignore</t>
+  </si>
+  <si>
+    <t>The Ignore annotation is used to ignore the test and that test will not be executed</t>
+  </si>
+  <si>
+    <t>JUnit tests can be run automatically and they check their own results and provide immediate feedback through a report of test results. 
+JUnit tests can be organized into test suites containing test cases and even other test suites. 
+Junit shows test progress in a bar that is green if test is going fine and it turns red when a test fails.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>junit.framework.TestCase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
 public class SetupMethod extends TestCase {
  private int value1;  private int value2;
  @Override
@@ -518,83 +681,53 @@
   assertTrue("success", result == 30);
  }
 }</t>
-  </si>
-  <si>
-    <t>Test suite</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test suite means bundle a few unit test cases and run it together. In JUnit, both </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@org.junit.runner.RunWith</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@org.junit.runners.Suite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@org.junit.runners.Suite.SuiteClasses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> annotation are used to run the suite test. Here is an example which uses TestJunit1 &amp; TestJunit2 test classes</t>
-    </r>
-  </si>
-  <si>
-    <t>Example of Test suite</t>
-  </si>
-  <si>
-    <t>import org.junit.Assert; import org.junit.Test;
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.junit.Assert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.junit.Test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
 public class TestJunit1 {
  @Test
  public void test1() {
@@ -604,95 +737,263 @@
  @Test
  public void test2() {  System.out.println("inside test2()");  Assert.assertEquals("Testing", "Testing"); }
 }
-import org.junit.runner.RunWith;
-import org.junit.runners.Suite;
-import org.junit.runners.Suite.SuiteClasses;
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.junit.runner.RunWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.junit.runners.Suite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.junit.runners.Suite.SuiteClasses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
 @RunWith(Suite.class)
 @SuiteClasses({ TestJunit1.class, TestJunit2.class })
 public class JunitTestSuite {
 }</t>
-  </si>
-  <si>
-    <t>Run above test suite(JunitTestSuite)</t>
-  </si>
-  <si>
-    <t>import org.junit.runner.JUnitCore; import org.junit.runner.Result; import org.junit.runner.notification.Failure;
-public class App {
- public static void main(String[] args) {
-  Result result = JUnitCore.runClasses(JunitTestSuite.class);
-  for (Failure failure : result.getFailures()) {   System.out.println(failure.toString());  }
-  System.out.println(result.wasSuccessful());
- }
-}</t>
-  </si>
-  <si>
-    <t>Test runner</t>
-  </si>
-  <si>
-    <t>Test runner is used for executing the test cases. Above code is an example to run JunitTestSuite</t>
-  </si>
-  <si>
-    <t>JUnit classes</t>
-  </si>
-  <si>
-    <t>JUnit classes are important classes which is used in writing and testing JUnits.</t>
-  </si>
-  <si>
-    <t>Spring Junit</t>
-  </si>
-  <si>
-    <t>Junit Spring Integration</t>
-  </si>
-  <si>
-    <t>https://www.mkyong.com/unittest/junit-spring-integration-example/</t>
-  </si>
-  <si>
-    <t>https://examples.javacodegeeks.com/core-java/junit/spring-junit-test-example/</t>
-  </si>
-  <si>
-    <t>http://docs.spring.io/spring-batch/reference/html/testing.html</t>
-  </si>
-  <si>
-    <t>Mkyong</t>
-  </si>
-  <si>
-    <t>http://www.mkyong.com/tutorials/junit-tutorials/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Test</t>
-  </si>
-  <si>
-    <t>The Test annotation tells JUnit that the public void method to which it is attached can be run as a test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Before</t>
-  </si>
-  <si>
-    <t>Several tests need similar objects created before they can run. Annotating a public void method with @Before causes that method to be run before each Test method</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @After</t>
-  </si>
-  <si>
-    <t>If you allocate external resources in a Before method you need to release them after the test runs. Annotating a public void method with @After causes that method to be run after the Test method</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @BeforeClass</t>
-  </si>
-  <si>
-    <t>Annotating a public static void method with @BeforeClass causes it to be run once before any of the test methods in the class</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @AfterClass</t>
-  </si>
-  <si>
-    <t>This will perform the method after all tests have finished. This can be used to perform clean-up activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Ignore</t>
-  </si>
-  <si>
-    <t>The Ignore annotation is used to ignore the test and that test will not be executed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Test annotation tells JUnit that the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public void method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to which it is attached can be run as a test case</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Several tests need similar objects created before they can run. Annotating a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public void method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with @Before causes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that method to be run before each Test method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you allocate external resources in a Before method you need to release them after the test runs. Annotating a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public void method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with @After causes that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method to be run after each Test method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annotating a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public static void method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with @BeforeClass causes it to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run once before any of the test methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the class</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. This will perform the method after all tests have finished. This can be used to perform clean-up activities.
+2. Method should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public static void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run once after all test methods</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -881,7 +1182,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -900,6 +1201,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1233,7 +1537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1272,7 +1576,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1311,10 +1615,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1334,31 +1638,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1377,151 +1681,151 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="12" t="s">
-        <v>62</v>
+      <c r="A13" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6" t="s">
-        <v>55</v>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="75">
+      <c r="A16" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="240">
+      <c r="A17" s="13"/>
+      <c r="B17" s="6" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="12"/>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="225">
       <c r="A20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="315">
       <c r="A22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="135">
       <c r="A23" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
       <c r="A30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1568,13 +1872,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1582,17 +1886,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -1603,7 +1907,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1611,31 +1915,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1704,10 +2008,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -1733,10 +2037,10 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
@@ -1851,10 +2155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1892,42 +2196,42 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="17"/>
+      <c r="A6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="18"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Mockito" sheetId="4" r:id="rId4"/>
     <sheet name="PowerMock" sheetId="5" r:id="rId5"/>
     <sheet name="Spring+Junit" sheetId="6" r:id="rId6"/>
+    <sheet name="SpringBootJunit" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
   <si>
     <t>Topics</t>
   </si>
@@ -994,6 +995,81 @@
       </rPr>
       <t>run once after all test methods</t>
     </r>
+  </si>
+  <si>
+    <t>Spring Boot + Junit</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Create First Spring Boot Application</t>
+  </si>
+  <si>
+    <t>We need to add spring-boot-starter-test dependency</t>
+  </si>
+  <si>
+    <t>Steps Spring Boot Junit</t>
+  </si>
+  <si>
+    <t>Spring Boot has support for this testing frameworks</t>
+  </si>
+  <si>
+    <t>1. Junit: 
+2. Hamcrest
+3. Mockito
+4. Spring Test: Provides testing tools and integration testing support</t>
+  </si>
+  <si>
+    <t>Example on Junit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spring.boot.hello.world.test.HelloWorldControllerTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in SpringBootPractice project</t>
+    </r>
+  </si>
+  <si>
+    <t>Hamcrest</t>
+  </si>
+  <si>
+    <t>Spring Boot integration test steps</t>
+  </si>
+  <si>
+    <t>1. Add @Runwith(SpringJUnit4ClassRunner.class) at class level
+2. Add @SpringApplicationConfiguration(App.class) at class level. Here App.java is class with main method</t>
+  </si>
+  <si>
+    <t>Add this annotation to test class at class level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RunWith(SpringJUnit4ClassRunner)</t>
+  </si>
+  <si>
+    <t>For web integration test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @WebIntegrationTest</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1258,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1212,6 +1288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1533,16 +1613,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.875" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1577,6 +1657,16 @@
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1586,6 +1676,7 @@
     <hyperlink ref="A4" location="Mockito!A1" display="Mockito"/>
     <hyperlink ref="A5" location="PowerMock!A1" display="Power Mock"/>
     <hyperlink ref="A6" location="'Spring+Junit'!A1" display="Spring Junit"/>
+    <hyperlink ref="A7" location="SpringBootJunit!A1" display="Spring Boot + Junit"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1595,15 +1686,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="128.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="54.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="128.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -1615,10 +1706,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1646,23 +1737,23 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1681,7 +1772,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1689,7 +1780,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="10" t="s">
         <v>91</v>
       </c>
@@ -1703,7 +1794,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1711,7 +1802,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6" t="s">
         <v>59</v>
       </c>
@@ -1740,7 +1831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45">
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
@@ -1859,8 +1950,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="123.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="63.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="123.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -1872,13 +1963,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1886,19 +1977,19 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:2" ht="45">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -1907,7 +1998,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1915,31 +2006,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1989,14 +2080,14 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:B9"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" customWidth="1"/>
-    <col min="2" max="2" width="121.85546875" customWidth="1"/>
+    <col min="1" max="1" width="63.875" customWidth="1"/>
+    <col min="2" max="2" width="121.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -2008,10 +2099,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -2037,10 +2128,10 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
@@ -2067,7 +2158,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2075,7 +2166,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="15"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -2118,9 +2209,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -2142,8 +2234,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" customWidth="1"/>
-    <col min="2" max="2" width="120.28515625" customWidth="1"/>
+    <col min="1" max="1" width="66.875" customWidth="1"/>
+    <col min="2" max="2" width="120.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2155,10 +2247,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2174,17 +2266,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="61.5703125" customWidth="1"/>
-    <col min="2" max="2" width="124.85546875" customWidth="1"/>
+    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="2" max="2" width="101.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2196,10 +2288,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2210,28 +2302,44 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2250,4 +2358,100 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.375" customWidth="1"/>
+    <col min="2" max="2" width="109.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="20"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="SpringBootJunit!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>Topics</t>
   </si>
@@ -108,15 +108,6 @@
   </si>
   <si>
     <t>Steps to create Junit test case with Mockito</t>
-  </si>
-  <si>
-    <t>1. Annotate @RunWith(MockitoJunitRunner.class) at class
-2. Annotate objects to be injected with @Mock annotation
-3. Annotate object to which object other objects are injected with @InjectMocks
-4. Making MockitoJunitRunner is used to run the tests. That is done with @RunWith(MockitoJunitRunner.class)
-5. Annotate init() with @Before
-6. init() { MockitoAnnotations.initMocks(this); }
-7. Annotate test method with @Test annotation</t>
   </si>
   <si>
     <t>If getProducts() method is called on productDo then how to return mocks</t>
@@ -1070,6 +1061,14 @@
   </si>
   <si>
     <t xml:space="preserve"> @WebIntegrationTest</t>
+  </si>
+  <si>
+    <t>1. Annotate @RunWith(MockitoJunitRunner.class) at class level. For making MockitoJunitRunner is used to run the tests
+2. Annotate objects to be injected with @Mock annotation
+3. Annotate object to which other objects to be injected with @InjectMocks
+4. Annotate init() with @Before
+5. init() { MockitoAnnotations.initMocks(this); }
+6. Annotate test method with @Test annotation</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1257,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1292,6 +1291,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1617,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1656,17 +1661,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1692,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1706,217 +1711,217 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="14"/>
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="75">
+      <c r="A16" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="240">
+      <c r="A17" s="17"/>
+      <c r="B17" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="15"/>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="225">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="315">
       <c r="A22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="135">
       <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
       <c r="A30" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1963,100 +1968,100 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="14"/>
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="20"/>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2079,15 +2084,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.875" customWidth="1"/>
-    <col min="2" max="2" width="121.875" customWidth="1"/>
+    <col min="1" max="1" width="50.75" customWidth="1"/>
+    <col min="2" max="2" width="113.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -2099,10 +2104,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -2115,11 +2120,14 @@
     <row r="4" spans="1:2">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4"/>
@@ -2128,10 +2136,10 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
@@ -2158,7 +2166,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2166,7 +2174,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -2187,32 +2195,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="105">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
+      <c r="B17" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -2247,10 +2256,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2268,9 +2277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2288,57 +2297,57 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="22"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="20"/>
+      <c r="A11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
         <v>111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
         <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2384,61 +2393,61 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="22"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="20"/>
+      <c r="A11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
         <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
   <si>
     <t>Topics</t>
   </si>
@@ -1069,6 +1069,12 @@
 4. Annotate init() with @Before
 5. init() { MockitoAnnotations.initMocks(this); }
 6. Annotate test method with @Test annotation</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/MockitoPractice.git</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1297,6 +1303,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1711,10 +1721,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1742,23 +1752,23 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1777,7 +1787,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1785,7 +1795,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="10" t="s">
         <v>90</v>
       </c>
@@ -1799,7 +1809,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1807,7 +1817,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1968,13 +1978,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1982,17 +1992,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
@@ -2003,7 +2013,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2011,31 +2021,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2086,7 +2096,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2104,10 +2114,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -2124,22 +2134,27 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
@@ -2166,7 +2181,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2174,7 +2189,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -2226,9 +2241,10 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2256,10 +2272,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2297,10 +2313,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2311,28 +2327,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -2393,10 +2409,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2407,16 +2423,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -1263,7 +1263,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1307,6 +1307,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1721,10 +1724,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1752,23 +1755,23 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1787,7 +1790,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1795,7 +1798,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>90</v>
       </c>
@@ -1809,7 +1812,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1817,7 +1820,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1978,13 +1981,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1992,17 +1995,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
@@ -2013,7 +2016,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2021,31 +2024,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2095,8 +2098,8 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2114,10 +2117,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
@@ -2134,10 +2137,10 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
@@ -2151,10 +2154,10 @@
       <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
@@ -2181,7 +2184,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2189,7 +2192,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -2222,7 +2225,7 @@
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2272,10 +2275,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2313,10 +2316,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2327,28 +2330,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -2409,10 +2412,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2423,16 +2426,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -2098,8 +2098,8 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -14,13 +14,14 @@
     <sheet name="PowerMock" sheetId="5" r:id="rId5"/>
     <sheet name="Spring+Junit" sheetId="6" r:id="rId6"/>
     <sheet name="SpringBootJunit" sheetId="7" r:id="rId7"/>
+    <sheet name="DBUnit" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="144">
   <si>
     <t>Topics</t>
   </si>
@@ -611,24 +612,6 @@
   </si>
   <si>
     <t>http://www.mkyong.com/tutorials/junit-tutorials/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Before</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @After</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @BeforeClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @AfterClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @Ignore</t>
   </si>
   <si>
     <t>The Ignore annotation is used to ignore the test and that test will not be executed</t>
@@ -1075,6 +1058,112 @@
   </si>
   <si>
     <t>https://github.com/avinashbabudonthu/MockitoPractice.git</t>
+  </si>
+  <si>
+    <t>Mockito + Spring</t>
+  </si>
+  <si>
+    <t>images\q_mockito\Mockito_With_Spring.docx</t>
+  </si>
+  <si>
+    <t>Test-Driven Development Practices in Java</t>
+  </si>
+  <si>
+    <t>Pluralsight video name</t>
+  </si>
+  <si>
+    <t>DBUnit</t>
+  </si>
+  <si>
+    <t>A good Junit test will have 4 steps</t>
+  </si>
+  <si>
+    <t>1. setup
+2. execute
+3. verify
+4. tear down</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>establishment of data and fixture needed to execute the test</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Invocation of method under test</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Assertion of result returned by method under test</t>
+  </si>
+  <si>
+    <t>Tear down</t>
+  </si>
+  <si>
+    <t>Clearing any data and fixtures created during setup
+Ex: 1. clearing of data base records which inserted during testing
+2. release resources to avoid memory leaks
+3. deleting any files created during execution</t>
+  </si>
+  <si>
+    <t>Unit Testing In Java With Junit</t>
+  </si>
+  <si>
+    <t>Pluralsight video</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @org.junit.Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @org.junit.Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @org.junit.After</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @org.junit.BeforeClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @org.junit.AfterClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @org.junit.Ignore</t>
+  </si>
+  <si>
+    <t>Verification methods in Junit</t>
+  </si>
+  <si>
+    <t>1. org.junit.Assert.*
+2. HamCrestMatcherAssert</t>
+  </si>
+  <si>
+    <t>Additional library providing extension to Junit's assertion mechanism</t>
+  </si>
+  <si>
+    <t>HamCrestMatcherAssert</t>
+  </si>
+  <si>
+    <t>Without annotation how to create mock of dependency class</t>
+  </si>
+  <si>
+    <t>Method stubbing</t>
+  </si>
+  <si>
+    <t>OrderDao mockOrderDao = org.mockito.Mockito.mock(OrderDao.class);</t>
+  </si>
+  <si>
+    <t>org.mockito.Mockito.when(mockOrderDao.findOrder(orderId)).thenReturn(orderFixture);</t>
+  </si>
+  <si>
+    <t>org.mockito.Mockito.verify(mockOrderDao).findOrder(orderId);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To assert that particular methods were called with matched set of inputs. </t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1352,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1307,6 +1396,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1631,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1679,12 +1771,17 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1702,17 +1799,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="128.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="50.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="112.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -1724,233 +1821,297 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>46</v>
+      <c r="A3" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="21" t="s">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="22"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="90">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:2" ht="90">
+      <c r="A14" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="20"/>
-      <c r="B14" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="21"/>
+      <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="20" t="s">
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="240">
-      <c r="A17" s="20"/>
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="1:2" ht="240">
+      <c r="A18" s="21"/>
+      <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="225">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:2" ht="225">
+      <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="315">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:2" ht="315">
+      <c r="A23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="135">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="135">
+      <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>89</v>
+    </row>
+    <row r="33" spans="1:2" ht="60">
+      <c r="A33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1981,13 +2142,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1995,17 +2156,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
@@ -2016,7 +2177,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2024,31 +2185,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2095,11 +2256,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2117,134 +2278,178 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="19"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="4"/>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="20"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="21"/>
+      <c r="B15" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="13" t="s">
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="24"/>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2275,10 +2480,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2316,10 +2521,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2330,43 +2535,43 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2412,61 +2617,61 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2482,4 +2687,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="194">
   <si>
     <t>Topics</t>
   </si>
@@ -1164,6 +1164,235 @@
   </si>
   <si>
     <t xml:space="preserve">To assert that particular methods were called with matched set of inputs. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we have to mock class which is implementing multiple interfaces then in that we case we need to use MockSettings class to create mock.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MockSettings mockSettings = Mockito.withSettings();
+OrderDao mockOrderDao = Mockito.mock(OrderDao.class, mockSettings);</t>
+    </r>
+  </si>
+  <si>
+    <t>org.mockito.MockSettings (I)
+org.mockito.internal.creation.MockSettingsImpl (c )</t>
+  </si>
+  <si>
+    <t>MockSettings.extraInterfaces(.. )</t>
+  </si>
+  <si>
+    <t>This method will accept variable number of interfaces, which the resulting mock will implement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For Example: class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderUtil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderFilter, OrderTransformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ --- }
+OrderTransformer 
+class OrderServiceImpl{
+OrderTransformer orderTransformer = …;
+  public List&lt;String&gt; getOrderSummary(){
+    if(orderTransformer instanceof OrderFilter) { … }
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>OrderTransformer mockOrderTransformer = Mockito.mock(OrderTransformer.class, mockSettings.extraInterfaces(OrderFilter.class) );</t>
+  </si>
+  <si>
+    <t>Making mock to implement Serializable interface</t>
+  </si>
+  <si>
+    <t>MockSettings.serializable(…);</t>
+  </si>
+  <si>
+    <t>MockSettings.name(...)</t>
+  </si>
+  <si>
+    <t>allows you to provide a descriptive name to be logged when any verification against mock fails</t>
+  </si>
+  <si>
+    <t>Mockito.when(..)</t>
+  </si>
+  <si>
+    <t>return OnGoingStub&lt;T&gt;, specifies how the invocation behaves. This is generic type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the type of the instance is derived from the return type of the operation being called on the mock. We then use instance of OnGoingStub to specify what to return upon invocation of the operation. </t>
+  </si>
+  <si>
+    <t>OnGoingStub returns the following operations</t>
+  </si>
+  <si>
+    <t>thenReturn(..)</t>
+  </si>
+  <si>
+    <t>return an object or value based on the return type of the method being stubbed</t>
+  </si>
+  <si>
+    <t>thenThrow(..)</t>
+  </si>
+  <si>
+    <t>1. provides means for testing exception being thrown by method under test.
+2. This method expects an instance of an exception as the parameter and stores it to later being thrown during execution of method.</t>
+  </si>
+  <si>
+    <t>Mockito.when(mockService.getEmployeeList()).thenThrow(new NoRecordsException("no records found"));</t>
+  </si>
+  <si>
+    <t>void methods</t>
+  </si>
+  <si>
+    <t>1. thenReturn(..)
+2. thenThrow(..)
+3. thenCallRealMethod(..)
+4. thenAnswer(..)
+5. doThrow(..)</t>
+  </si>
+  <si>
+    <t>1. Mocking void methods do not work with OnGoingStub&lt;T&gt;
+2. We don’t need to mock methods returning void because there is nothing we need to return as method execution that we can stub. But we have situation like method with void can throw an exception. To test this situation we need to use doThrow(..) method</t>
+  </si>
+  <si>
+    <t>doThrow(..)</t>
+  </si>
+  <si>
+    <t>1. returns an instance of org.mockito.Stubbing rather than org.mockito.OnGoingStub</t>
+  </si>
+  <si>
+    <t>org.mockito.Stubber stubber = Mockito.doThrow(new EmployeeInsertException("can not insert new employee"));
+stubber.when(employeeServiceMock.insertEmployee(employeeFixture) );</t>
+  </si>
+  <si>
+    <t>thenCallRealMethod(..)</t>
+  </si>
+  <si>
+    <t>To call real method on stubbing</t>
+  </si>
+  <si>
+    <t>Mockito.when(mockService.getEmployeeList()).thenCallRealMethod();</t>
+  </si>
+  <si>
+    <t>Answering allows you to provide a means to conditionally respond based on mock operation parameters</t>
+  </si>
+  <si>
+    <t>Mockito.when( mockService.insertEmployee(Mockito.any(Employee.class)) ).thenAnswer(new Answer(){
+   Object answer(InvocationOnMock invocation) { ----- }
+});</t>
+  </si>
+  <si>
+    <t>thenAnswer(..) - this is used for argument matchig means return different values based on arguments to method being mocked</t>
+  </si>
+  <si>
+    <t>Mockito.verify()</t>
+  </si>
+  <si>
+    <t>Mockito.when(employeeServiceMock.getEmployee(empId)).thenReturn(employeeFixture);
+//verification
+Mockito.verify(employeeServiceMock).getEmployee(empId);</t>
+  </si>
+  <si>
+    <t>Mockito.verify(employeeServiceMock, VerificationSettings.times(2)).getEmployee(empId);</t>
+  </si>
+  <si>
+    <t>1. Used to verify whether mock method is being called or not
+2. Allows to verify how many time mock method is being called in method under test</t>
+  </si>
+  <si>
+    <t>Verification modes</t>
+  </si>
+  <si>
+    <t>VerificationSettings.times(n)</t>
+  </si>
+  <si>
+    <t>How many time mock method being called in method under test</t>
+  </si>
+  <si>
+    <t>atLeastOnce()</t>
+  </si>
+  <si>
+    <t>Mock method must be called at least once and also can be called more than once</t>
+  </si>
+  <si>
+    <t>atLeast(n)</t>
+  </si>
+  <si>
+    <t>minimum number of times that mock method must be called in method under test and also can be called more than 2 time but not less than 2 times</t>
+  </si>
+  <si>
+    <t>atMost(n)</t>
+  </si>
+  <si>
+    <t>maximum number of time that mock method can be called in method under test</t>
+  </si>
+  <si>
+    <t>never()</t>
+  </si>
+  <si>
+    <t>mock operation should never be called by method under test. Generally used while testing alternate paths of code</t>
+  </si>
+  <si>
+    <t>Mockito.verify(..).zeroInteractions()</t>
+  </si>
+  <si>
+    <t>declares that mock should have absolutely no interaction throughout the execution of the test method</t>
+  </si>
+  <si>
+    <t>Mockito.verify(..).noMoreInteractions()</t>
+  </si>
+  <si>
+    <t>there may have been certain operations called on the mock, but no others were expected in the alternative paths of code</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1581,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1387,17 +1616,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1428,6 +1650,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1821,16 +2049,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1860,23 +2088,23 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
@@ -1895,7 +2123,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="90">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1903,7 +2131,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="21"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="10" t="s">
         <v>84</v>
       </c>
@@ -1917,7 +2145,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1925,7 +2153,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="21"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
@@ -1954,7 +2182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" ht="45">
       <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
@@ -1995,7 +2223,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -2003,7 +2231,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -2011,7 +2239,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2019,7 +2247,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2027,7 +2255,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2035,7 +2263,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -2043,58 +2271,58 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2142,13 +2370,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2156,17 +2384,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
@@ -2177,7 +2405,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2185,31 +2413,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2256,17 +2484,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.75" customWidth="1"/>
-    <col min="2" max="2" width="113.125" customWidth="1"/>
+    <col min="1" max="1" width="50.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="113.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -2278,120 +2506,116 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="4"/>
-    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="4"/>
-    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="21"/>
-      <c r="B15" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2399,47 +2623,273 @@
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24"/>
-      <c r="B24" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="15" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="120">
+      <c r="A27" s="27"/>
+      <c r="B27" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="27"/>
+      <c r="B32" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75">
+      <c r="A33" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="27"/>
+      <c r="B39" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="21"/>
+      <c r="B43" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="21"/>
+      <c r="B45" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A14:A15"/>
@@ -2480,10 +2930,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2521,10 +2971,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2535,28 +2985,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -2617,10 +3067,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2631,16 +3081,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="211">
   <si>
     <t>Topics</t>
   </si>
@@ -1393,6 +1393,130 @@
   </si>
   <si>
     <t>there may have been certain operations called on the mock, but no others were expected in the alternative paths of code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provides extra control of stubs and verification of calls. Argument matchers allow alternatives for matching based on equals method often providing a more generic specification of a method stub by explicitly declaring the matching strategy. </t>
+  </si>
+  <si>
+    <t>Argument Matchers
+org.mockito.Matchers
+org.mockito.Mockito</t>
+  </si>
+  <si>
+    <t>Different methods in org.mockito.Matchers</t>
+  </si>
+  <si>
+    <t>Mockito.mock(employeeServiceMock.getEmployee(Matchers.anyString()) ).thenReturn(employeeFixture);
+if method has 2 arguments: Mockito.mock(employeeServiceMock.findByIdAndName( Matchers.eq("1L"), Matchers.anyString() )).thenReturn(employeeFixture);</t>
+  </si>
+  <si>
+    <t>Matchers is base class of Mockito class (i.e public class Mockito extends Matchers )
+1. Matchers.eq(..)
+2. Matchers.any(String.class) (or) ((String)Matchers.any())
+3. Matchers.anyInt()
+4. Matchers.anyDouble()</t>
+  </si>
+  <si>
+    <t>5. (Set&lt;String&gt;)Matchers.anySet() (or) Matchers.anySetOf(String.class)
+6. Matchers.eq("Johny");
+7. Matchers.contains("ohn");
+8. Matchers.startsWith("Jo");
+9. Matchers.endsWith("ny");
+10. Matchers.match("^(Jo|Ko)hny");</t>
+  </si>
+  <si>
+    <t>11. Matchers.same(ref)
+12. Matchers.refEq(ref)
+13. Matchers.refEq(ref, "excludeField");</t>
+  </si>
+  <si>
+    <t>Stubbing consecutive calls with different responses</t>
+  </si>
+  <si>
+    <t>Testing exception thrown</t>
+  </si>
+  <si>
+    <t>original method:
+public String throwNullPointerException() {
+  throw new NullPointerException("exception thrown from throwNullPointerException() method");
+ }</t>
+  </si>
+  <si>
+    <r>
+      <t>Test Method:
+@Test(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expected = NullPointerException.class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+ public void testThrowNullPointerException() throws Exception {
+  new Exceptions().throwNullPointerException();
+ }</t>
+    </r>
+  </si>
+  <si>
+    <t>Mockito.mock(employeeServiceMock.getEmployee(Matchers.anyInt())).thenThrow(NoObjectException.class).thenReturn(employeeFixture);</t>
+  </si>
+  <si>
+    <t>InOrder verifier</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InOrder inOrderVerifier = Mockito.inOrder(employeeServiceMock, financeServiceMock);
+inOrderVerifier.verify(employeeServiceMock).getEmployee(employeeFixture);
+inOrderVerifier.verify(financeServiceMock).getSalary(salaryFixture);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Now in method under test if methods getEmployee, getSalary are not executed in the order specified above then test will fail</t>
+    </r>
+  </si>
+  <si>
+    <t>Argument Captures</t>
+  </si>
+  <si>
+    <t>If method under test creating an object but does not returning then how to test the object whether it is constructed correctly? This can be done using argument captures
+ArgumentCaptor allows you to capture the actual object passed into the mock</t>
+  </si>
+  <si>
+    <t>Mockito.mock(mockOrderDao.insert(Mockito.any(OrderEntity.class)) ).thenReturn(1);
+String orderNumber = this.target.openNewOrder(1);
+ArgumentCaptor&lt;OrderEntity&gt; orderEntityCaptor = ArgumentCaptor.forClass(OrderEntity.class);
+Mockito.verify(mockOrderDao).insert(orderEntityCaptor.capture() );
+OrderEntity orderEntity = orderEntityCaptor.getValue();
+Assert.assertEqual(1, orderEntity.getCustomerId() );</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1705,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1624,6 +1748,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1642,6 +1772,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1650,12 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2027,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2049,10 +2176,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -2088,23 +2215,23 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
@@ -2123,7 +2250,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="90">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2131,7 +2258,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10" t="s">
         <v>84</v>
       </c>
@@ -2145,7 +2272,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -2153,7 +2280,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="6" t="s">
         <v>58</v>
       </c>
@@ -2326,8 +2453,23 @@
         <v>136</v>
       </c>
     </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="75">
+      <c r="A41" s="23"/>
+      <c r="B41" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:A15"/>
@@ -2370,13 +2512,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2384,17 +2526,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
@@ -2405,7 +2547,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2413,31 +2555,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2484,11 +2626,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2506,10 +2648,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2537,10 +2679,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
@@ -2552,10 +2694,10 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
@@ -2582,7 +2724,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2590,7 +2732,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
@@ -2649,7 +2791,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -2657,13 +2799,13 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2671,7 +2813,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -2679,19 +2821,19 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="120">
-      <c r="A27" s="27"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="15" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -2699,7 +2841,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -2707,7 +2849,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="24" t="s">
         <v>154</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -2715,13 +2857,13 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="27"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -2729,7 +2871,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="17" t="s">
         <v>158</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -2737,7 +2879,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="24" t="s">
         <v>160</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2745,13 +2887,13 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="15" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -2759,7 +2901,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="24" t="s">
         <v>166</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -2767,13 +2909,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="27"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="24" t="s">
         <v>169</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -2781,13 +2923,13 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="27"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="23" t="s">
         <v>174</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -2795,13 +2937,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="21"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="23" t="s">
         <v>175</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -2809,13 +2951,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="21"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="15" t="s">
         <v>177</v>
       </c>
@@ -2881,8 +3023,80 @@
         <v>193</v>
       </c>
     </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="23"/>
+      <c r="B56" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="75">
+      <c r="A57" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="90">
+      <c r="A58" s="20"/>
+      <c r="B58" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45">
+      <c r="A59" s="20"/>
+      <c r="B59" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="60">
+      <c r="A61" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="90">
+      <c r="A63" s="23"/>
+      <c r="B63" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A26:A28"/>
@@ -2890,11 +3104,6 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -2930,10 +3139,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2971,10 +3180,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2985,28 +3194,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3067,10 +3276,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3081,16 +3290,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="227">
   <si>
     <t>Topics</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>What is Mockito</t>
-  </si>
-  <si>
-    <t>Mockito is Mocking framework to use in Junit</t>
   </si>
   <si>
     <r>
@@ -179,9 +176,6 @@
       <t>)
    .toReturn(products);</t>
     </r>
-  </si>
-  <si>
-    <t>org.mockito.ArgumentCaptor&lt;T&gt;</t>
   </si>
   <si>
     <t>Definitions</t>
@@ -1343,9 +1337,6 @@
 Mockito.verify(employeeServiceMock).getEmployee(empId);</t>
   </si>
   <si>
-    <t>Mockito.verify(employeeServiceMock, VerificationSettings.times(2)).getEmployee(empId);</t>
-  </si>
-  <si>
     <t>1. Used to verify whether mock method is being called or not
 2. Allows to verify how many time mock method is being called in method under test</t>
   </si>
@@ -1517,6 +1508,72 @@
 Mockito.verify(mockOrderDao).insert(orderEntityCaptor.capture() );
 OrderEntity orderEntity = orderEntityCaptor.getValue();
 Assert.assertEqual(1, orderEntity.getCustomerId() );</t>
+  </si>
+  <si>
+    <t>Mockito.verify(employeeServiceMock, Mockito.times(2)).getEmployee(empId);</t>
+  </si>
+  <si>
+    <t>Partial Mocks</t>
+  </si>
+  <si>
+    <t>We can mock interfaces and classes. If we mock certain operation on interfaces and mock certain operation on class then that is calles Partial Mocks</t>
+  </si>
+  <si>
+    <t>Mock vs Spy</t>
+  </si>
+  <si>
+    <t>We can mock invocations using mock or spy</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>Spy wraps an existing instance of an object inside the proxy and its default nature is to call the real method. The method invocations are only mocked when you explicitely stub the call. In this case proxy knows to bypass the real method call</t>
+  </si>
+  <si>
+    <t>1. Mockito is Mocking framework to use in Junit</t>
+  </si>
+  <si>
+    <t>Mockito limitations</t>
+  </si>
+  <si>
+    <t>1. we cant mock final methods. You can stub the call and the runtime will not complain, but we will receive an assertion failure if you expect the mocked result to be returned
+2. We cant mock private methods.
+3. we cannot mock static methods</t>
+  </si>
+  <si>
+    <t>Why Powermock</t>
+  </si>
+  <si>
+    <t>1. To mock static methods in mock framework
+2. Mockito uses the proxy pattern to facilitate mocking. Powermock uses a custom class loader and byte code manipulation to add these extra capabilities. When using these two frameworks in conjunction my preference is to leverage Mockito directly as much as possible and only use power mock for your exceptional requirements.</t>
+  </si>
+  <si>
+    <t>Powermock offers the capability to create stubs for static method calls. We need to declare that we want to mock static methods for the class, then perform stubbing and verification</t>
+  </si>
+  <si>
+    <t>Steps to have powermock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PrepareForTest</t>
+  </si>
+  <si>
+    <t>Annotation to declare in which class's static methods we want mock</t>
+  </si>
+  <si>
+    <t>Argument captor for static method</t>
+  </si>
+  <si>
+    <t>ArgumentCaptor&lt;OrderMessage&gt; argumentCaptor = ArgumentCaptor.forClass(OrderMessage.class);
+WarhouseManagementService.sendOrder(argumentCaptor.capture() );
+OrderMessage orderMessage = argumentCaptor.getValue();</t>
+  </si>
+  <si>
+    <t>1. add PowerMockRunner.class at class level -&gt; @RunWith(PowerMockRunner.class)
+2. add @PrepareForTest annotation at class level and the list classes whose methods to be mocked -&gt; @PrepareForTest(value={WarhouseManagementService.class})
+3. PowerMockito.mockStatic(WarhouseManagementService.class); -&gt; tell mockito that we want to mock static methods
+4. PowerMockito.when(WarhouseManagementService.sendOrder(Matchers.anyString()) ).thenReturn(true); -&gt; Declare when/then statement using Powermock
+5. PowerMockito.verifyStatic(); -&gt; verify static method of a class</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1697,6 +1754,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1705,7 +1771,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1754,6 +1820,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1769,9 +1844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1783,6 +1855,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2082,7 +2156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2121,22 +2195,22 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2176,295 +2250,295 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="19"/>
+      <c r="A8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="22"/>
+      <c r="A9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="19"/>
+      <c r="A11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90">
+      <c r="A14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90">
-      <c r="A14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="20" t="s">
+    <row r="18" spans="1:2" ht="240">
+      <c r="A18" s="23"/>
+      <c r="B18" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="20"/>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="225">
       <c r="A21" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="315">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="135">
       <c r="A24" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="23" t="s">
-        <v>202</v>
+      <c r="A40" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="23"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2512,100 +2586,100 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="19"/>
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="20"/>
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2626,11 +2700,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:A63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2648,17 +2722,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2671,420 +2745,447 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="19"/>
+      <c r="A7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
+      <c r="B11" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="15" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="15" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="15" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="90">
+      <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="14" t="s">
+      <c r="B19" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="15" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="15" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="24" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="120">
+      <c r="A27" s="26"/>
+      <c r="B27" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="15" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="15" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="120">
-      <c r="A27" s="24"/>
-      <c r="B27" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="24" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="26"/>
+      <c r="B32" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="24"/>
-      <c r="B32" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B35" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="24" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
       <c r="A37" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="15" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="24" t="s">
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="26"/>
+      <c r="B39" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="15" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="26" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="24"/>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="24" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="15" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="15" t="s">
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="20"/>
+      <c r="B43" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="23" t="s">
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="20"/>
+      <c r="B45" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="23"/>
-      <c r="B43" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="23"/>
-      <c r="B45" s="15" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="15" t="s">
-        <v>177</v>
+      <c r="A46" s="20"/>
+      <c r="B46" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B55" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="20"/>
+      <c r="B56" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="75">
+      <c r="A57" s="23" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="23" t="s">
+      <c r="B57" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="23"/>
-      <c r="B56" s="16" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="90">
+      <c r="A58" s="23"/>
+      <c r="B58" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45">
+      <c r="A59" s="23"/>
+      <c r="B59" s="16" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="75">
-      <c r="A57" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="90">
-      <c r="A58" s="20"/>
-      <c r="B58" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="45">
-      <c r="A59" s="20"/>
-      <c r="B59" s="16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="60">
       <c r="A61" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B61" s="16" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="90">
+      <c r="A63" s="20"/>
+      <c r="B63" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="16" t="s">
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="19" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="23"/>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="19" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3195,7 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A42:A43"/>
@@ -3117,17 +3218,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.875" customWidth="1"/>
-    <col min="2" max="2" width="120.25" customWidth="1"/>
+    <col min="1" max="1" width="60" customWidth="1"/>
+    <col min="2" max="2" width="103.75" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3139,14 +3240,60 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="28"/>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="31"/>
+      <c r="B10" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="105">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="PowerMock!A2" display="Up"/>
@@ -3180,57 +3327,57 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="A6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="26"/>
+      <c r="A11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3276,61 +3423,61 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="A6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="28"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="26"/>
+      <c r="A11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Junit" sheetId="2" r:id="rId2"/>
-    <sheet name="Easy Mock" sheetId="3" r:id="rId3"/>
-    <sheet name="Mockito" sheetId="4" r:id="rId4"/>
-    <sheet name="PowerMock" sheetId="5" r:id="rId5"/>
-    <sheet name="Spring+Junit" sheetId="6" r:id="rId6"/>
-    <sheet name="SpringBootJunit" sheetId="7" r:id="rId7"/>
-    <sheet name="DBUnit" sheetId="8" r:id="rId8"/>
+    <sheet name="Materials" sheetId="9" r:id="rId2"/>
+    <sheet name="Junit" sheetId="2" r:id="rId3"/>
+    <sheet name="Easy Mock" sheetId="3" r:id="rId4"/>
+    <sheet name="Mockito" sheetId="4" r:id="rId5"/>
+    <sheet name="PowerMock" sheetId="5" r:id="rId6"/>
+    <sheet name="Spring+Junit" sheetId="6" r:id="rId7"/>
+    <sheet name="SpringBootJunit" sheetId="7" r:id="rId8"/>
+    <sheet name="DBUnit" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="251">
   <si>
     <t>Topics</t>
   </si>
@@ -1575,12 +1576,154 @@
 4. PowerMockito.when(WarhouseManagementService.sendOrder(Matchers.anyString()) ).thenReturn(true); -&gt; Declare when/then statement using Powermock
 5. PowerMockito.verifyStatic(); -&gt; verify static method of a class</t>
   </si>
+  <si>
+    <t>Instantiation of objects</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Powerful capability provided by powermock is the ability to mock instantiation of objects. Calls using "new" operator can be replaced with stubbed results. Because the framework is performing byte code manipulation, it is able to replace the usage of new operator with a call to mocking framework. We can do this using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PowerMockito.whenNew(..)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">An important this to note is we need to prepare the class performing object instantiation, not the object being instantiated using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@PrepareForTest(ClassUnderTest.class)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation.</t>
+    </r>
+  </si>
+  <si>
+    <t>public class ServiceImpl{
+ private static final AuditService logger = new AuditService();
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RunWith(PowerMockRunner.class)
+@PrepareForTest(value={ClassWithStaticMethod.class, ServiceImp.class})
+public class ServiceImplTest{
+ public void test(){
+  AuditService audit = new AuditService();
+   PowerMockito.whenNew(AuditService.class).withNoArguments().thenReturn(audit);
+  }
+}</t>
+  </si>
+  <si>
+    <t>Mocking final and private methods</t>
+  </si>
+  <si>
+    <t>PowerMockito supports static method mock(..) similar to Mockito (PowerMockito.mock(..) ). However the instance returned has the capability to stub invocations of final and private methods. This is possible by PowerMock because it is manipulating byte code during class loading.</t>
+  </si>
+  <si>
+    <t>Mocking final method</t>
+  </si>
+  <si>
+    <t>We don’t need to do anything to mock final methods. Regular PowerMockito.mock(..) is enough</t>
+  </si>
+  <si>
+    <t>Mocking private methods</t>
+  </si>
+  <si>
+    <t>An over loaded method of PowerMockito.mock(..) allows private method mocking. It accepts a reference to the mock and an instance of the java reflection java.lang.reflect.Method class</t>
+  </si>
+  <si>
+    <t>Verify mocking private methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerMockito.verifyPrivate(..);
+This method supports several overloads. </t>
+  </si>
+  <si>
+    <t>Method privateMethod = classObject.getDeclaredMethod("privateMethodName");
+WithOrWithoutExpectedArguments args = PowerMockito.when(mockService, privateMethod);
+args.withArguments(item1, order).thenReturn(resultFixture);</t>
+  </si>
+  <si>
+    <t>Method calculateDiscount = …;
+PrivateMethodVerification pmVerification = PowerMockito.verifyPrivate(serviceMock);
+//use either of below
+pmVerification.invoke(calculateDiscount).withArguments(item1, order);
+//or
+pmVerification.invoke("calculateDiscount", item1, order);</t>
+  </si>
+  <si>
+    <t>Whitebox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerMock also offer utility class named white box, which is more or less a wrapper around the java reflection API but does good job of simplifying usage. </t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>PowerMock</t>
+  </si>
+  <si>
+    <t>What is DBUnit</t>
+  </si>
+  <si>
+    <t>1. Helps solve challenges of managing database test fixture data
+2. Open source library to help support setup, validation and teardown of data in a relational database</t>
+  </si>
+  <si>
+    <t>For connection DBUnit uses</t>
+  </si>
+  <si>
+    <t>IDatabaseConnection interface</t>
+  </si>
+  <si>
+    <t>For data sets DBUnit uses</t>
+  </si>
+  <si>
+    <t>IDataSet interface</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1630,6 +1773,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1771,7 +1920,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1829,6 +1978,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1853,10 +2007,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2152,11 +2310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2209,8 +2367,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="21" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="21" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2221,6 +2384,8 @@
     <hyperlink ref="A5" location="PowerMock!A1" display="Power Mock"/>
     <hyperlink ref="A6" location="'Spring+Junit'!A1" display="Spring Junit"/>
     <hyperlink ref="A7" location="SpringBootJunit!A1" display="Spring Boot + Junit"/>
+    <hyperlink ref="A9" location="DBUnit!A1" display="DBUnit"/>
+    <hyperlink ref="A10" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2228,10 +2393,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.25" customWidth="1"/>
+    <col min="2" max="2" width="109" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="22" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="22" customFormat="1">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="22" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="22" customFormat="1"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A17" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A23" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Materials!A1" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2250,319 +2538,278 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="22"/>
+      <c r="A2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="22"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="25"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="21" t="s">
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22"/>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="6" t="s">
+      <c r="B5" s="25"/>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="90">
+      <c r="A8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="26"/>
+      <c r="B9" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240">
+      <c r="A12" s="26"/>
       <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90">
-      <c r="A14" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="23"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="225">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="240">
-      <c r="A18" s="23"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="315">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="135">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="225">
-      <c r="A21" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45">
-      <c r="A22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="315">
-      <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="135">
-      <c r="A24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="A26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60">
       <c r="A27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
+        <v>114</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
+        <v>116</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>87</v>
+        <v>118</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45">
+        <v>120</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
       <c r="A31" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
       <c r="A32" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="60">
+        <v>132</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="20" t="s">
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="20"/>
-      <c r="B41" s="16" t="s">
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="23"/>
+      <c r="B35" s="16" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A40:A41"/>
+  <mergeCells count="6">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -2586,13 +2833,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2600,17 +2847,17 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" s="4" t="s">
@@ -2621,7 +2868,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2629,31 +2876,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="20"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2698,13 +2945,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2722,10 +2969,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -2753,10 +3000,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
@@ -2768,10 +3015,10 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
@@ -2806,7 +3053,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2814,7 +3061,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
@@ -2868,7 +3115,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -2876,7 +3123,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="15" t="s">
         <v>141</v>
       </c>
@@ -2890,7 +3137,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>144</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -2898,13 +3145,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="120">
-      <c r="A27" s="26"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="15" t="s">
         <v>147</v>
       </c>
@@ -2926,7 +3173,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -2934,7 +3181,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="26"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="15" t="s">
         <v>154</v>
       </c>
@@ -2956,7 +3203,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2964,7 +3211,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
         <v>160</v>
       </c>
@@ -2978,7 +3225,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -2986,13 +3233,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="26"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -3000,13 +3247,13 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="26"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="23" t="s">
         <v>172</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -3014,13 +3261,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="20"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="23" t="s">
         <v>173</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -3028,13 +3275,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="20"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="20"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="18" t="s">
         <v>208</v>
       </c>
@@ -3101,7 +3348,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="23" t="s">
         <v>192</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -3109,13 +3356,13 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="20"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="75">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="26" t="s">
         <v>193</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -3123,13 +3370,13 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="90">
-      <c r="A58" s="23"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="45">
-      <c r="A59" s="23"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="16" t="s">
         <v>197</v>
       </c>
@@ -3151,7 +3398,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="23" t="s">
         <v>205</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -3159,7 +3406,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="20"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="16" t="s">
         <v>207</v>
       </c>
@@ -3216,13 +3463,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3240,16 +3487,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="32" t="s">
@@ -3260,7 +3507,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="19" t="s">
         <v>220</v>
       </c>
@@ -3289,21 +3536,97 @@
         <v>225</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="36"/>
+      <c r="B15" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="120">
+      <c r="A16" s="36"/>
+      <c r="B16" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="33"/>
+      <c r="B20" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" s="37"/>
+      <c r="B22" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="PowerMock!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -3327,10 +3650,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3341,28 +3664,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3399,7 +3722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -3423,10 +3746,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3437,16 +3760,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3495,14 +3818,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="54.625" customWidth="1"/>
+    <col min="2" max="2" width="109.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="25"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="25"/>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="DBUnit!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A9" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="259">
   <si>
     <t>Topics</t>
   </si>
@@ -84,9 +84,6 @@
 private ProductDo productDo;</t>
   </si>
   <si>
-    <t>To inject above create mock object into another object</t>
-  </si>
-  <si>
     <t xml:space="preserve"> @InjectMocks
 private ProductBo productBo = new ProductBOImpl();</t>
   </si>
@@ -112,73 +109,6 @@
     <t>If getProducts() method is called on productDo then how to return mocks</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">List&lt;Product&gt; products = java.util.Arrays.asList(product1, product2);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>org.mockito.Mockito.stub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(productDo.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getProducts(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>org.mockito.Matchers.anyInt()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-   .toReturn(products);</t>
-    </r>
-  </si>
-  <si>
     <t>Definitions</t>
   </si>
   <si>
@@ -233,12 +163,6 @@
   </si>
   <si>
     <t>org.easymock.EasyMock.createMock(StockService.class);</t>
-  </si>
-  <si>
-    <t>EasyMock created a mock of stock service</t>
-  </si>
-  <si>
-    <t>Mock implementation of getPrice method of stockService interface. For googleStock, return 50.00 as price</t>
   </si>
   <si>
     <t>EasyMock prepares the Mock object to be ready so that it can be used for testing</t>
@@ -1189,60 +1113,6 @@
     <t>This method will accept variable number of interfaces, which the resulting mock will implement</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">For Example: class </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OrderUtil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> implements </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OrderFilter, OrderTransformer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{ --- }
-OrderTransformer 
-class OrderServiceImpl{
-OrderTransformer orderTransformer = …;
-  public List&lt;String&gt; getOrderSummary(){
-    if(orderTransformer instanceof OrderFilter) { … }
-  }
-}</t>
-    </r>
-  </si>
-  <si>
     <t>OrderTransformer mockOrderTransformer = Mockito.mock(OrderTransformer.class, mockSettings.extraInterfaces(OrderFilter.class) );</t>
   </si>
   <si>
@@ -1342,9 +1212,6 @@
 2. Allows to verify how many time mock method is being called in method under test</t>
   </si>
   <si>
-    <t>Verification modes</t>
-  </si>
-  <si>
     <t>VerificationSettings.times(n)</t>
   </si>
   <si>
@@ -1360,9 +1227,6 @@
     <t>atLeast(n)</t>
   </si>
   <si>
-    <t>minimum number of times that mock method must be called in method under test and also can be called more than 2 time but not less than 2 times</t>
-  </si>
-  <si>
     <t>atMost(n)</t>
   </si>
   <si>
@@ -1390,23 +1254,7 @@
     <t xml:space="preserve">provides extra control of stubs and verification of calls. Argument matchers allow alternatives for matching based on equals method often providing a more generic specification of a method stub by explicitly declaring the matching strategy. </t>
   </si>
   <si>
-    <t>Argument Matchers
-org.mockito.Matchers
-org.mockito.Mockito</t>
-  </si>
-  <si>
     <t>Different methods in org.mockito.Matchers</t>
-  </si>
-  <si>
-    <t>Mockito.mock(employeeServiceMock.getEmployee(Matchers.anyString()) ).thenReturn(employeeFixture);
-if method has 2 arguments: Mockito.mock(employeeServiceMock.findByIdAndName( Matchers.eq("1L"), Matchers.anyString() )).thenReturn(employeeFixture);</t>
-  </si>
-  <si>
-    <t>Matchers is base class of Mockito class (i.e public class Mockito extends Matchers )
-1. Matchers.eq(..)
-2. Matchers.any(String.class) (or) ((String)Matchers.any())
-3. Matchers.anyInt()
-4. Matchers.anyDouble()</t>
   </si>
   <si>
     <t>5. (Set&lt;String&gt;)Matchers.anySet() (or) Matchers.anySetOf(String.class)
@@ -1428,12 +1276,6 @@
     <t>Testing exception thrown</t>
   </si>
   <si>
-    <t>original method:
-public String throwNullPointerException() {
-  throw new NullPointerException("exception thrown from throwNullPointerException() method");
- }</t>
-  </si>
-  <si>
     <r>
       <t>Test Method:
 @Test(</t>
@@ -1501,14 +1343,6 @@
   <si>
     <t>If method under test creating an object but does not returning then how to test the object whether it is constructed correctly? This can be done using argument captures
 ArgumentCaptor allows you to capture the actual object passed into the mock</t>
-  </si>
-  <si>
-    <t>Mockito.mock(mockOrderDao.insert(Mockito.any(OrderEntity.class)) ).thenReturn(1);
-String orderNumber = this.target.openNewOrder(1);
-ArgumentCaptor&lt;OrderEntity&gt; orderEntityCaptor = ArgumentCaptor.forClass(OrderEntity.class);
-Mockito.verify(mockOrderDao).insert(orderEntityCaptor.capture() );
-OrderEntity orderEntity = orderEntityCaptor.getValue();
-Assert.assertEqual(1, orderEntity.getCustomerId() );</t>
   </si>
   <si>
     <t>Mockito.verify(employeeServiceMock, Mockito.times(2)).getEmployee(empId);</t>
@@ -1717,6 +1551,222 @@
   </si>
   <si>
     <t>IDataSet interface</t>
+  </si>
+  <si>
+    <t>original method:
+public class Exceptions{ 
+    public String throwNullPointerException() {
+       throw new NullPointerException("exception thrown from throwNullPointerException() method");
+    }
+}</t>
+  </si>
+  <si>
+    <t>EasyMock created a mock of StockService</t>
+  </si>
+  <si>
+    <t>Mock implementation of getPrice method of StockService interface, for googleStock, return 50.00 as price</t>
+  </si>
+  <si>
+    <t>EasyMock</t>
+  </si>
+  <si>
+    <t>To inject above created mock object into another object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List&lt;Product&gt; products = java.util.Arrays.asList(product1, product2);
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.mockito.Mockito.stub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(productDo.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getProducts(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.mockito.Matchers.anyInt()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).toReturn(products);
+(or)
+2. org.mockito.Mockito.when(productDo.getProducts(org.mockito.Matchers.anyInt())).toReturn(products);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For Example: class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderUtil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderFilter, OrderTransformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ --- }
+class OrderServiceImpl{
+OrderTransformer orderTransformer = …;
+  public List&lt;String&gt; getOrderSummary(){
+    if(orderTransformer instanceof OrderFilter) { … }
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>minimum number of times that mock method must be called in method under test and also can be called more than n time but not less than n times</t>
+  </si>
+  <si>
+    <t>Argument Matchers:
+org.mockito.Matchers
+org.mockito.Mockito</t>
+  </si>
+  <si>
+    <t>Mockito.mock(employeeServiceMock.getEmployee(Matchers.anyString()) ).thenReturn(employeeFixture);
+if method has 2 arguments: Mockito.mock(employeeServiceMock.findByIdAndName( Matchers.eq("1L"), Matchers.anyString()) ) .thenReturn(employeeFixture);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Matchers is base class of Mockito class (i.e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public class Mockito extends Matchers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )
+1. Matchers.eq(..)
+2. Matchers.any(String.class) (or) ((String)Matchers.any())
+3. Matchers.anyInt()
+4. Matchers.anyDouble()</t>
+    </r>
+  </si>
+  <si>
+    <t>Mockito.mock(mockOrderDao.insert(Mockito.any(OrderEntity.class)) ).thenReturn(1);
+// original method in which orderDao.insert(orderEntity) is getting called
+String orderNumber = this.target.openNewOrder(1);
+ArgumentCaptor&lt;OrderEntity&gt; orderEntityCaptor = ArgumentCaptor.forClass(OrderEntity.class);
+Mockito.verify(mockOrderDao).insert(orderEntityCaptor.capture() );
+OrderEntity orderEntity = orderEntityCaptor.getValue();
+Assert.assertEqual(1, orderEntity.getCustomerId() );</t>
+  </si>
+  <si>
+    <t>Junit Materials</t>
+  </si>
+  <si>
+    <t>Easy Mock Materials</t>
+  </si>
+  <si>
+    <t>Mockito Materials</t>
+  </si>
+  <si>
+    <t>Power Mock Materials</t>
+  </si>
+  <si>
+    <t>Spring Junit Materials</t>
+  </si>
+  <si>
+    <t>Spring Boot Junit Materials</t>
+  </si>
+  <si>
+    <t>Hamcrest materials</t>
+  </si>
+  <si>
+    <t>DBUnit materials</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1970,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1983,11 +2033,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2001,6 +2056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2009,12 +2065,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2312,9 +2367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2335,45 +2390,69 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="24" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="24" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="24" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="25" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="21" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2393,11 +2472,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2415,100 +2494,140 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="22" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="22" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="22" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="25"/>
+      <c r="A17" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="25"/>
+      <c r="A23" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A27" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A1" display="Up"/>
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
     <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2519,8 +2638,8 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2538,256 +2657,256 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="28"/>
+      <c r="A3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="25"/>
+      <c r="A5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="26" t="s">
-        <v>58</v>
+      <c r="A8" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="26"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240">
+      <c r="A12" s="29"/>
+      <c r="B12" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="26"/>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="225">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="315">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>200</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="90">
+      <c r="A34" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="23"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2820,8 +2939,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="123.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="58.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="105.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -2833,113 +2952,97 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="1:2" ht="30">
+      <c r="A10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="28"/>
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="4" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A12:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'Easy Mock'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2947,11 +3050,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2969,494 +3072,457 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
+      <c r="A11" s="29"/>
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="15" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="B16" s="15" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>20</v>
+      <c r="A18" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="90">
-      <c r="A19" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="28"/>
       <c r="B19" s="15" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="5" t="s">
-        <v>23</v>
+      <c r="A20" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
-        <v>136</v>
+      <c r="A21" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105">
+      <c r="A22" s="32"/>
+      <c r="B22" s="23" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="23" t="s">
-        <v>120</v>
-      </c>
+      <c r="A23" s="32"/>
       <c r="B23" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="B24" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="29" t="s">
-        <v>144</v>
+      <c r="A26" s="32" t="s">
+        <v>147</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="120">
-      <c r="A27" s="29"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="32"/>
       <c r="B27" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="29"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="75">
+      <c r="A28" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="B28" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="29" t="s">
-        <v>152</v>
-      </c>
+      <c r="A31" s="32"/>
       <c r="B31" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="29"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="17" t="s">
+        <v>156</v>
+      </c>
       <c r="B32" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="75">
-      <c r="A33" s="17" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="32"/>
+      <c r="B34" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="32" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="29" t="s">
-        <v>158</v>
-      </c>
       <c r="B35" s="15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="29"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="29" t="s">
-        <v>164</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="28"/>
       <c r="B38" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="29"/>
+      <c r="A39" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="B39" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="29" t="s">
-        <v>167</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="28"/>
       <c r="B40" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="15" t="s">
-        <v>169</v>
+      <c r="A41" s="28"/>
+      <c r="B41" s="18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="23"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="B43" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="15" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="23"/>
+      <c r="B44" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="B45" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="18" t="s">
-        <v>208</v>
+      <c r="A46" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="15" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="28"/>
+      <c r="B50" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="75">
+      <c r="A51" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B51" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="90">
+      <c r="A52" s="29"/>
+      <c r="B52" s="16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="29"/>
+      <c r="B53" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B53" s="15" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="16" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="23" t="s">
+      <c r="B54" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="60">
+      <c r="A55" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="23"/>
+      <c r="A56" s="28" t="s">
+        <v>194</v>
+      </c>
       <c r="B56" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="75">
-      <c r="A57" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" s="16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="90">
-      <c r="A58" s="26"/>
-      <c r="B58" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="45">
-      <c r="A59" s="26"/>
-      <c r="B59" s="16" t="s">
+    <row r="57" spans="1:2" ht="120">
+      <c r="A57" s="28"/>
+      <c r="B57" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="19" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="16" t="s">
+      <c r="B58" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="16" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="60">
-      <c r="A61" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="90">
-      <c r="A63" s="23"/>
-      <c r="B63" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A62:A63"/>
+  <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3468,8 +3534,8 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3487,125 +3553,125 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="31"/>
+      <c r="A2" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="35"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="31"/>
+      <c r="A8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="32" t="s">
-        <v>218</v>
+      <c r="A9" s="36" t="s">
+        <v>206</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="33"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="19" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="105">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="36" t="s">
-        <v>227</v>
+      <c r="A14" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="36"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="20" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="36"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="20" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="22" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="33" t="s">
-        <v>235</v>
+      <c r="A19" s="37" t="s">
+        <v>223</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="33"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="20" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="37" t="s">
-        <v>237</v>
+      <c r="A21" s="33" t="s">
+        <v>225</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="37"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3650,57 +3716,57 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="34"/>
+      <c r="A4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="35"/>
+      <c r="A5" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="31"/>
+      <c r="A6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="35"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="31"/>
+      <c r="A11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3746,61 +3812,61 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="31"/>
+      <c r="A6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="35"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="31"/>
+      <c r="A11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3822,9 +3888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3842,47 +3908,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="25"/>
+      <c r="A7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="27"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="25"/>
+      <c r="A11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="22" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="22" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="267">
   <si>
     <t>Topics</t>
   </si>
@@ -1767,6 +1767,37 @@
   </si>
   <si>
     <t>DBUnit materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RunWith(SpringJUnit4ClassRunner.class)
+@ContextConfiguration(classes = {AppConfig.class})
+public class MachineLearningTest { ----- }</t>
+  </si>
+  <si>
+    <t>If we are using xml for spring config</t>
+  </si>
+  <si>
+    <t>import org.springframework.test.context.ContextConfiguration;
+@RunWith(SpringJUnit4ClassRunner.class)
+@ContextConfiguration(locations = {"classpath:pathTo/appConfig.xml","classpath:pathTo/appConfig2.xml"})
+public class MachineLearningTest { //… }</t>
+  </si>
+  <si>
+    <t>For multiple config classes</t>
+  </si>
+  <si>
+    <t>If we are using config class annotations for spring config</t>
+  </si>
+  <si>
+    <t>import org.springframework.test.context.ContextConfiguration;
+@ContextConfiguration(classes = {AppConfig.class, AppConfig2.class})
+public class MachineLearningTest { //… }</t>
+  </si>
+  <si>
+    <t>Spring doc</t>
+  </si>
+  <si>
+    <t>https://spring.io/blog/2011/06/21/spring-3-1-m2-testing-with-configuration-classes-and-profiles</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +2001,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2035,6 +2066,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2042,15 +2084,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2367,14 +2403,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.875" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2481,7 +2517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.25" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
     <col min="2" max="2" width="109" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2494,10 +2530,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -2534,10 +2570,10 @@
     <row r="7" spans="1:2" s="22" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
@@ -2565,10 +2601,10 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
@@ -2580,10 +2616,10 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -2595,13 +2631,13 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="27"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2609,7 +2645,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
@@ -2644,8 +2680,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="112.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -2657,23 +2693,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
@@ -2692,15 +2728,15 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="33"/>
       <c r="B9" s="10" t="s">
         <v>78</v>
       </c>
@@ -2714,7 +2750,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2722,7 +2758,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="29"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2735,7 +2771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -2815,7 +2851,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" s="13" t="s">
         <v>125</v>
       </c>
@@ -2896,7 +2932,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="30" t="s">
         <v>189</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -2904,7 +2940,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="28"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="16" t="s">
         <v>190</v>
       </c>
@@ -2939,8 +2975,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="105.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="105.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -2952,17 +2988,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -2973,7 +3009,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2981,31 +3017,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="28"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3059,8 +3095,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="113.125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -3072,10 +3108,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3087,10 +3123,10 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
@@ -3125,7 +3161,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>243</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3133,7 +3169,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3206,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="15" t="s">
         <v>132</v>
       </c>
@@ -3187,7 +3223,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="30" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -3195,12 +3231,12 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
+    <row r="20" spans="1:2" ht="60">
       <c r="A20" s="17" t="s">
         <v>139</v>
       </c>
@@ -3209,7 +3245,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="35" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -3217,13 +3253,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="23" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="32"/>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="35"/>
       <c r="B23" s="15" t="s">
         <v>142</v>
       </c>
@@ -3245,7 +3281,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="35" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -3253,7 +3289,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="32"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="15" t="s">
         <v>149</v>
       </c>
@@ -3274,8 +3310,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="35" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -3283,12 +3319,12 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2" ht="60">
       <c r="A32" s="17" t="s">
         <v>156</v>
       </c>
@@ -3297,7 +3333,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="35" t="s">
         <v>159</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -3305,13 +3341,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="32"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="15" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="35" t="s">
         <v>162</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -3319,13 +3355,13 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="30" t="s">
         <v>167</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -3333,13 +3369,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="28"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="30" t="s">
         <v>168</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -3347,13 +3383,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="28"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="28"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="18" t="s">
         <v>196</v>
       </c>
@@ -3415,7 +3451,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="30" t="s">
         <v>247</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -3423,13 +3459,13 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="28"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="23" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3437,18 +3473,18 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="29"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="29"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="30">
       <c r="A54" s="16" t="s">
         <v>188</v>
       </c>
@@ -3456,7 +3492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="60">
+    <row r="55" spans="1:2" ht="75">
       <c r="A55" s="16" t="s">
         <v>192</v>
       </c>
@@ -3465,7 +3501,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="30" t="s">
         <v>194</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -3473,7 +3509,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="28"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="23" t="s">
         <v>250</v>
       </c>
@@ -3504,11 +3540,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3518,6 +3549,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3541,7 +3577,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="103.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3553,19 +3589,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="39" t="s">
         <v>206</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -3573,12 +3609,12 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="37"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="105">
+    <row r="11" spans="1:2" ht="120">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -3603,7 +3639,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -3611,13 +3647,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>218</v>
       </c>
@@ -3639,7 +3675,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="40" t="s">
         <v>223</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -3647,13 +3683,13 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="37"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="36" t="s">
         <v>225</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -3661,7 +3697,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="20" t="s">
         <v>228</v>
       </c>
@@ -3694,17 +3730,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="101.5" customWidth="1"/>
+    <col min="2" max="2" width="101.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3716,10 +3752,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3730,50 +3766,82 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="40"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="43"/>
+    </row>
+    <row r="6" spans="1:2" s="27" customFormat="1">
+      <c r="A6" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="B7" s="38"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
+      <c r="B12" s="38"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
@@ -3783,6 +3851,7 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3799,8 +3868,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.375" customWidth="1"/>
-    <col min="2" max="2" width="109.125" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="109.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3812,10 +3881,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3826,16 +3895,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="38"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3895,8 +3964,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.625" customWidth="1"/>
-    <col min="2" max="2" width="109.625" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -3908,24 +3977,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="22" t="s">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1173,9 +1173,6 @@
     <t>doThrow(..)</t>
   </si>
   <si>
-    <t>1. returns an instance of org.mockito.Stubbing rather than org.mockito.OnGoingStub</t>
-  </si>
-  <si>
     <t>org.mockito.Stubber stubber = Mockito.doThrow(new EmployeeInsertException("can not insert new employee"));
 stubber.when(employeeServiceMock.insertEmployee(employeeFixture) );</t>
   </si>
@@ -1798,6 +1795,9 @@
   </si>
   <si>
     <t>https://spring.io/blog/2011/06/21/spring-3-1-m2-testing-with-configuration-classes-and-profiles</t>
+  </si>
+  <si>
+    <t>1. returns an instance of org.mockito.Stubber rather than org.mockito.OnGoingStub</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2001,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2071,6 +2071,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2427,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2435,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2443,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2451,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2459,7 +2462,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2467,7 +2470,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2475,7 +2478,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2483,12 +2486,12 @@
         <v>109</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2530,10 +2533,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -2570,10 +2573,10 @@
     <row r="7" spans="1:2" s="22" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
@@ -2601,10 +2604,10 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="32"/>
+      <c r="A17" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="33"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
@@ -2616,10 +2619,10 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="33"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -2631,13 +2634,13 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B27" s="32"/>
+      <c r="A27" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2645,7 +2648,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
@@ -2693,23 +2696,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
@@ -2728,7 +2731,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2736,7 +2739,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="10" t="s">
         <v>78</v>
       </c>
@@ -2750,7 +2753,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2758,7 +2761,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2932,17 +2935,17 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="31"/>
+      <c r="B35" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="30"/>
-      <c r="B35" s="16" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2988,17 +2991,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -3009,7 +3012,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3017,31 +3020,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
@@ -3059,7 +3062,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3088,9 +3091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3108,10 +3111,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3123,25 +3126,25 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
@@ -3161,15 +3164,15 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="33" t="s">
-        <v>243</v>
+      <c r="A10" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
@@ -3223,7 +3226,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -3231,7 +3234,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="15" t="s">
         <v>137</v>
       </c>
@@ -3245,7 +3248,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -3253,13 +3256,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="15" t="s">
         <v>142</v>
       </c>
@@ -3281,7 +3284,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -3289,7 +3292,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="35"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="15" t="s">
         <v>149</v>
       </c>
@@ -3311,7 +3314,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -3319,7 +3322,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
@@ -3333,213 +3336,218 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="36"/>
+      <c r="B34" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="35"/>
-      <c r="B34" s="15" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="35" t="s">
+      <c r="B35" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="15" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="15" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="30" t="s">
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="31"/>
+      <c r="B38" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="30"/>
-      <c r="B38" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="30" t="s">
+      <c r="B39" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="31"/>
+      <c r="B40" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="30"/>
-      <c r="B40" s="15" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="30"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B48" s="15" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="30" t="s">
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="31"/>
+      <c r="B50" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="B49" s="16" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="75">
+      <c r="A51" s="34" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="30"/>
-      <c r="B50" s="23" t="s">
+      <c r="B51" s="23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="33" t="s">
+    <row r="52" spans="1:2" ht="90">
+      <c r="A52" s="34"/>
+      <c r="B52" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="33"/>
-      <c r="B52" s="16" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="34"/>
+      <c r="B53" s="16" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="33"/>
-      <c r="B53" s="16" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="75">
       <c r="A55" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="16" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="31" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="30" t="s">
+      <c r="B56" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="30"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3549,11 +3557,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3589,125 +3592,125 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="41"/>
+      <c r="B10" s="19" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="40"/>
-      <c r="B10" s="19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="20" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="42"/>
+      <c r="B15" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="41"/>
-      <c r="B15" s="20" t="s">
+    <row r="16" spans="1:2" ht="120">
+      <c r="A16" s="42"/>
+      <c r="B16" s="20" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="41"/>
-      <c r="B16" s="20" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="20" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="41" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="40" t="s">
+      <c r="B19" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="20" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="41"/>
+      <c r="B20" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="37" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20" t="s">
+      <c r="B21" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" s="37"/>
+      <c r="B22" s="20" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="36"/>
-      <c r="B22" s="20" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>229</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +3735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -3752,10 +3755,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3766,36 +3769,36 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2" s="27" customFormat="1">
       <c r="A6" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -3815,26 +3818,26 @@
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3881,10 +3884,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -3895,16 +3898,16 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3977,47 +3980,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>233</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="282">
   <si>
     <t>Topics</t>
   </si>
@@ -1798,6 +1798,82 @@
   </si>
   <si>
     <t>1. returns an instance of org.mockito.Stubber rather than org.mockito.OnGoingStub</t>
+  </si>
+  <si>
+    <t>For testing SpringBoot application we need to add this dependency to our pom</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+   &lt;artifactId&gt;spring-boot-starter-test&lt;/artifactId&gt;
+   &lt;scope&gt;test&lt;/scope&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>This will add Junit, Hamcrest, Mockito and Spring test tools as transative dependencies</t>
+  </si>
+  <si>
+    <t>For integration test of Spring Boot application</t>
+  </si>
+  <si>
+    <t>1. Add these 2 annotations. 
+@RunWith(SpringJUnit4ClassRunner.class)
+@SpringApplicationConfiguration(App.class)</t>
+  </si>
+  <si>
+    <t>SpringApplicationConfiguration</t>
+  </si>
+  <si>
+    <t>refer src/test/java -&gt; spring.boot.hello.world.HelloWorldIntegrationTest in SpringBootPractice project</t>
+  </si>
+  <si>
+    <t>Spring Boot Junit</t>
+  </si>
+  <si>
+    <t>SpringBootPractice</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/SpringBootPractice.git</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.springframework.boot.test.WebIntegrationTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation</t>
+    </r>
+  </si>
+  <si>
+    <t>Refer spring.boot.hello.world.HelloWorldWebIntegrationTest in SpringBootPractice project</t>
+  </si>
+  <si>
+    <t>If we run template.getXXX() method without adding @WebIntegrationTest annotation, we will get Connection Refused exception.</t>
+  </si>
+  <si>
+    <t>Spring boot annotation and we supply our main class as the annotation parameter. 
+This tells spring boot how to configure and start your application</t>
+  </si>
+  <si>
+    <t>Web Integration testing:
+@WebIntegrationTest</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1978,15 +2054,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2001,7 +2068,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2070,10 +2137,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2102,13 +2173,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2511,11 +2586,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2533,10 +2608,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -2573,10 +2648,10 @@
     <row r="7" spans="1:2" s="22" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
@@ -2604,10 +2679,10 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
@@ -2619,10 +2694,10 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="35"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -2634,13 +2709,13 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2648,13 +2723,63 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" s="41"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="41"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
@@ -2667,6 +2792,10 @@
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B28" r:id="rId2"/>
+    <hyperlink ref="B35" r:id="rId3"/>
+    <hyperlink ref="B38" r:id="rId4"/>
+    <hyperlink ref="B36" r:id="rId5"/>
+    <hyperlink ref="B37" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2696,23 +2825,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
@@ -2731,7 +2860,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2739,7 +2868,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="10" t="s">
         <v>78</v>
       </c>
@@ -2753,7 +2882,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2761,7 +2890,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2935,7 +3064,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="33" t="s">
         <v>188</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -2943,7 +3072,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="31"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="16" t="s">
         <v>189</v>
       </c>
@@ -2991,17 +3120,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -3012,7 +3141,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3020,31 +3149,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3091,9 +3220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3111,10 +3240,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3126,10 +3255,10 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
@@ -3164,7 +3293,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3172,7 +3301,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -3226,7 +3355,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -3234,7 +3363,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15" t="s">
         <v>137</v>
       </c>
@@ -3248,7 +3377,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="38" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -3256,13 +3385,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="36"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="23" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="36"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="15" t="s">
         <v>142</v>
       </c>
@@ -3284,7 +3413,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="38" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -3292,7 +3421,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="36"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="15" t="s">
         <v>149</v>
       </c>
@@ -3314,7 +3443,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="38" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -3322,7 +3451,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
@@ -3336,21 +3465,21 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="36"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -3358,13 +3487,13 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -3372,13 +3501,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="31"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -3386,13 +3515,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="31"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="18" t="s">
         <v>195</v>
       </c>
@@ -3454,7 +3583,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="33" t="s">
         <v>246</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -3462,13 +3591,13 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="31"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="23" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="36" t="s">
         <v>184</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3476,13 +3605,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="34"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="34"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="16" t="s">
         <v>186</v>
       </c>
@@ -3504,7 +3633,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="33" t="s">
         <v>193</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -3512,7 +3641,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="31"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="23" t="s">
         <v>249</v>
       </c>
@@ -3543,11 +3672,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3557,6 +3681,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3592,19 +3721,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>205</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -3612,7 +3741,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="41"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="19" t="s">
         <v>207</v>
       </c>
@@ -3642,7 +3771,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -3650,13 +3779,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="42"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="20" t="s">
         <v>217</v>
       </c>
@@ -3678,7 +3807,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="43" t="s">
         <v>222</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -3686,13 +3815,13 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="41"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>224</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -3700,7 +3829,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="20" t="s">
         <v>227</v>
       </c>
@@ -3733,11 +3862,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3755,106 +3884,65 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="39"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="43"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="44"/>
-    </row>
-    <row r="6" spans="1:2" s="27" customFormat="1">
-      <c r="A6" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>265</v>
-      </c>
+      <c r="A2" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="39"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="39"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="27" t="s">
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B10" s="26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="27" t="s">
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B11" s="26" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="27" t="s">
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B12" s="26" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
     <hyperlink ref="B1" location="'Spring+Junit'!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3862,17 +3950,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="109.140625" customWidth="1"/>
+    <col min="2" max="2" width="134.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3884,75 +3972,128 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="39"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
+      <c r="A3" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="39"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" t="s">
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B10" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75">
+      <c r="A12" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>271</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>97</v>
+      <c r="A15" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="29" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="SpringBootJunit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3980,24 +4121,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="22" t="s">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2145,6 +2145,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2167,12 +2173,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2608,10 +2608,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -2648,10 +2648,10 @@
     <row r="7" spans="1:2" s="22" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="37"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
@@ -2694,10 +2694,10 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="37"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -2709,13 +2709,13 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2723,16 +2723,16 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="33"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
@@ -2743,10 +2743,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="33"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
@@ -2825,23 +2825,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2868,7 +2868,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="36"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>78</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2890,7 +2890,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="36"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="35" t="s">
         <v>188</v>
       </c>
       <c r="B34" s="23" t="s">
@@ -3072,7 +3072,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="33"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="16" t="s">
         <v>189</v>
       </c>
@@ -3120,17 +3120,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3149,31 +3149,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3220,9 +3220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3240,10 +3240,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3255,10 +3255,10 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
@@ -3293,7 +3293,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3301,7 +3301,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -3355,7 +3355,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="35" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -3363,7 +3363,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="15" t="s">
         <v>137</v>
       </c>
@@ -3377,7 +3377,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="40" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -3385,13 +3385,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="38"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="23" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="38"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="15" t="s">
         <v>142</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="40" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="38"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>149</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="40" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -3451,7 +3451,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="38"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="40" t="s">
         <v>159</v>
       </c>
       <c r="B33" s="28" t="s">
@@ -3473,13 +3473,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="38"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="40" t="s">
         <v>161</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -3487,13 +3487,13 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="38"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -3501,13 +3501,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="33"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -3515,13 +3515,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="33"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="33"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="18" t="s">
         <v>195</v>
       </c>
@@ -3583,7 +3583,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="35" t="s">
         <v>246</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -3591,13 +3591,13 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="33"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="23" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="38" t="s">
         <v>184</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3605,13 +3605,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="36"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="36"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="16" t="s">
         <v>186</v>
       </c>
@@ -3633,7 +3633,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="35" t="s">
         <v>193</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="33"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="23" t="s">
         <v>249</v>
       </c>
@@ -3672,6 +3672,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3681,11 +3686,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3721,16 +3721,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="42" t="s">
@@ -3821,7 +3821,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>224</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -3829,7 +3829,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="20" t="s">
         <v>227</v>
       </c>
@@ -3884,16 +3884,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -3952,7 +3952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
@@ -3972,10 +3972,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4121,24 +4121,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="22" t="s">

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3220,9 +3220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3672,11 +3672,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3686,6 +3681,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3864,9 +3864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3672,6 +3672,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3681,11 +3686,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3701,9 +3701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3864,7 +3864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3672,11 +3672,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3686,6 +3681,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3701,9 +3701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3864,7 +3864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="303">
   <si>
     <t>Topics</t>
   </si>
@@ -407,9 +407,6 @@
     </r>
   </si>
   <si>
-    <t>https://github.com/avinashbabudonthu/Junit</t>
-  </si>
-  <si>
     <t>Test case without annotation</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
       </rPr>
       <t xml:space="preserve"> annotation are used to run the suite test. Here is an example which uses TestJunit1 &amp; TestJunit2 test classes</t>
     </r>
-  </si>
-  <si>
-    <t>Example of Test suite</t>
   </si>
   <si>
     <t>Run above test suite(JunitTestSuite)</t>
@@ -1085,24 +1079,6 @@
     <t xml:space="preserve">To assert that particular methods were called with matched set of inputs. </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">If we have to mock class which is implementing multiple interfaces then in that we case we need to use MockSettings class to create mock.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MockSettings mockSettings = Mockito.withSettings();
-OrderDao mockOrderDao = Mockito.mock(OrderDao.class, mockSettings);</t>
-    </r>
-  </si>
-  <si>
     <t>org.mockito.MockSettings (I)
 org.mockito.internal.creation.MockSettingsImpl (c )</t>
   </si>
@@ -1874,6 +1850,121 @@
   <si>
     <t>Web Integration testing:
 @WebIntegrationTest</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/JUnitPractice.git</t>
+  </si>
+  <si>
+    <t>Pluralsight - Definitions</t>
+  </si>
+  <si>
+    <t>Junit Features</t>
+  </si>
+  <si>
+    <t>1. Asserts
+2. Test setup and teardown
+3. Exception testing
+4. Test suites
+5. Parameterized Testing
+6. Assumptions
+7. Rules
+8. Theories
+9. Integration with popular build systems</t>
+  </si>
+  <si>
+    <t>Junit Annotations</t>
+  </si>
+  <si>
+    <t>1. @Test
+2. @Before
+3. @After
+4. @BeforeClass
+5. @AfterClass
+6. @Ignore
+7. @Test(expected=Exception.class)
+8. @Test(timeout=100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @After</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @BeforeClass</t>
+  </si>
+  <si>
+    <t>Runs before all test cases</t>
+  </si>
+  <si>
+    <t>Runs after each test case</t>
+  </si>
+  <si>
+    <t>Runs before each test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @AfterClass</t>
+  </si>
+  <si>
+    <t>Runs after all test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Ignore</t>
+  </si>
+  <si>
+    <t>Ignore specific test case which is annotated with this annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Test(expected=Exception.class)</t>
+  </si>
+  <si>
+    <t>Test case for exception case. Expected exception type is Exception.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Test(timeout=100)</t>
+  </si>
+  <si>
+    <t>Time period within which test case has to execute otherwise test case will timeout</t>
+  </si>
+  <si>
+    <t>Some methods in org.junit.Assert</t>
+  </si>
+  <si>
+    <t>assertEquals, assertTrue, assertFalse, assertNull, assertNotNull, assertSame, assertNotSame, fail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Example of Test suite. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Even though if you keep any test case in Test suite class that test methods wont execute</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we have to mock class which is implementing multiple interfaces then in that case we need to use MockSettings class to create mock.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MockSettings mockSettings = Mockito.withSettings();
+OrderDao mockOrderDao = Mockito.mock(OrderDao.class, mockSettings);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2068,7 +2159,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2145,6 +2236,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2163,11 +2266,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2505,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2513,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2521,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2529,44 +2632,44 @@
         <v>5</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2608,17 +2711,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1">
@@ -2639,26 +2742,26 @@
     </row>
     <row r="6" spans="1:2" s="22" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="22" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2671,51 +2774,51 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="37"/>
+      <c r="A17" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="41"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="37"/>
+      <c r="A23" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="41"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="37"/>
+      <c r="A27" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2723,57 +2826,57 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="33"/>
+      <c r="A31" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="37"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="33"/>
+      <c r="A34" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="37"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="30"/>
       <c r="B36" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="30"/>
       <c r="B37" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2803,11 +2906,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2825,23 +2928,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="34"/>
+      <c r="A3" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" s="6" t="s">
@@ -2860,7 +2963,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2868,9 +2971,9 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="38"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
@@ -2882,7 +2985,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2890,7 +2993,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="38"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -2913,178 +3016,266 @@
     </row>
     <row r="15" spans="1:2" ht="225">
       <c r="A15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="17" spans="1:2" ht="315">
-      <c r="A17" s="6" t="s">
-        <v>63</v>
+      <c r="A17" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
       <c r="A18" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="35" t="s">
-        <v>188</v>
+      <c r="A34" s="39" t="s">
+        <v>185</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="35"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A37" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:2" ht="135">
+      <c r="A38" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="120">
+      <c r="A39" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
@@ -3120,17 +3311,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -3141,7 +3332,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3149,31 +3340,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="35"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3183,7 +3374,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
@@ -3191,7 +3382,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3220,9 +3411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3240,40 +3431,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
@@ -3293,15 +3484,15 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="38" t="s">
-        <v>242</v>
+      <c r="A10" s="43" t="s">
+        <v>239</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -3327,7 +3518,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
@@ -3335,343 +3526,348 @@
         <v>22</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="15" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="15" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105">
+      <c r="A22" s="44"/>
+      <c r="B22" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="44"/>
+      <c r="B23" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="40"/>
-      <c r="B22" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="40"/>
-      <c r="B23" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="15" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="44"/>
+      <c r="B27" s="15" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="40"/>
-      <c r="B27" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
       <c r="A28" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="15" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="44"/>
+      <c r="B31" s="15" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="44"/>
+      <c r="B34" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="40" t="s">
+      <c r="B35" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="40"/>
-      <c r="B34" s="15" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="44"/>
+      <c r="B36" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="40" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="15" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="39"/>
+      <c r="B38" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="35" t="s">
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="35"/>
-      <c r="B38" s="15" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="39"/>
+      <c r="B40" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="35"/>
-      <c r="B40" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="39"/>
+      <c r="B50" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="75">
+      <c r="A51" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B51" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="90">
+      <c r="A52" s="43"/>
+      <c r="B52" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" s="16" t="s">
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="43"/>
+      <c r="B53" s="16" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="35"/>
-      <c r="B50" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="38"/>
-      <c r="B52" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="38"/>
-      <c r="B53" s="16" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="75">
       <c r="A55" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="35"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3681,11 +3877,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3721,125 +3912,125 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="42" t="s">
-        <v>205</v>
+      <c r="A9" s="46" t="s">
+        <v>202</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="43"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="44" t="s">
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="48"/>
+      <c r="B15" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="120">
+      <c r="A16" s="48"/>
+      <c r="B16" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="44"/>
-      <c r="B15" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="44"/>
-      <c r="B16" s="20" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B18" s="20" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="47"/>
+      <c r="B20" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="45" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="43" t="s">
+      <c r="B21" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="43"/>
-      <c r="B20" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="41" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" s="45"/>
+      <c r="B22" s="20" t="s">
         <v>224</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="41"/>
-      <c r="B22" s="20" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -3884,55 +4075,55 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3972,111 +4163,111 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
-      <c r="A12" s="45" t="s">
-        <v>267</v>
+      <c r="A12" s="49" t="s">
+        <v>264</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="45"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="29" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="45" t="s">
-        <v>281</v>
+      <c r="A17" s="49" t="s">
+        <v>278</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4121,47 +4312,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -3412,8 +3412,8 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3863,11 +3863,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3877,6 +3872,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -2159,7 +2159,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2170,9 +2170,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2197,15 +2194,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2231,9 +2222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2247,6 +2235,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2607,7 +2604,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2615,7 +2612,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2623,7 +2620,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2631,7 +2628,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2639,15 +2636,15 @@
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2655,20 +2652,20 @@
       <c r="A8" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2711,131 +2708,131 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="22" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" s="19" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="22" customFormat="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" s="19" customFormat="1">
+      <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="22" customFormat="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2" s="19" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="22" customFormat="1"/>
+    <row r="7" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="40"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="40"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="36"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
@@ -2846,10 +2843,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="36"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
@@ -2860,22 +2857,22 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="27" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2915,8 +2912,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="112.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -2928,342 +2925,342 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="37"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="43"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="43"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="225">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="315">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="39"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="41"/>
+      <c r="B37" s="40"/>
     </row>
     <row r="38" spans="1:2" ht="135">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="28" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="120">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="29" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="29" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="29" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="29" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="29" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="30" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3311,28 +3308,28 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3340,31 +3337,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3373,7 +3370,7 @@
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3381,7 +3378,7 @@
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3412,14 +3409,14 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -3431,438 +3428,443 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="31" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="31" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="31" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="31" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="31" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="31" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="44"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="31" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="44"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="31" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="31" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="44"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="31" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="31" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="31" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="31" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="31" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="31" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="44"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="31" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="31" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="39"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="31" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="39"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="31" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="31" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="31" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="31" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="31" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="39"/>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="31" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="31" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="43"/>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="31" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="43"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="31" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="31" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="75">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="31" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="39"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="31" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="31" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="31" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="31" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3872,11 +3874,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3900,7 +3897,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="103.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3912,28 +3909,28 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="47"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="16" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3941,7 +3938,7 @@
       <c r="A11" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3949,7 +3946,7 @@
       <c r="A12" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3957,79 +3954,79 @@
       <c r="A13" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="48"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="48"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="47"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="45"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4075,16 +4072,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4103,26 +4100,26 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4163,24 +4160,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4194,7 +4191,7 @@
       <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4210,63 +4207,63 @@
       <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="25" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="25" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="25" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="25" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="29" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="25" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4312,46 +4309,46 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>234</v>
       </c>
     </row>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2905,9 +2905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3408,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
@@ -3860,11 +3860,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3874,6 +3869,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2905,7 +2905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
@@ -3408,9 +3408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3860,6 +3860,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3869,11 +3874,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3408,9 +3408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3860,11 +3860,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3874,6 +3869,11 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -4140,9 +4140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3409,8 +3409,8 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:A41"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3889,9 +3889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4140,7 +4140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:A19"/>
     </sheetView>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="306">
   <si>
     <t>Topics</t>
   </si>
@@ -498,12 +498,6 @@
   </si>
   <si>
     <t>Test runner is used for executing the test cases. Above code is an example to run JunitTestSuite</t>
-  </si>
-  <si>
-    <t>JUnit classes</t>
-  </si>
-  <si>
-    <t>JUnit classes are important classes which is used in writing and testing JUnits.</t>
   </si>
   <si>
     <t>Spring Junit</t>
@@ -798,92 +792,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Annotating a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>public static void method</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with @BeforeClass causes it to be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>run once before any of the test methods</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the class</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. This will perform the method after all tests have finished. This can be used to perform clean-up activities.
-2. Method should be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>public static void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>run once after all test methods</t>
-    </r>
-  </si>
-  <si>
     <t>Spring Boot + Junit</t>
   </si>
   <si>
@@ -1965,6 +1873,119 @@
       <t>MockSettings mockSettings = Mockito.withSettings();
 OrderDao mockOrderDao = Mockito.mock(OrderDao.class, mockSettings);</t>
     </r>
+  </si>
+  <si>
+    <t>Junit classes</t>
+  </si>
+  <si>
+    <t>JUnit classes are important classes which is used in writing and testing Junits.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. This will perform the method </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after all tests have finished</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This can be used to perform clean-up activities.
+2. Method should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public static void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run once after all test methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run once before any of the test methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the class
+2. Method should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public static void </t>
+    </r>
+  </si>
+  <si>
+    <t>Workspaces</t>
+  </si>
+  <si>
+    <t>E:\workspaces\junit-ws</t>
+  </si>
+  <si>
+    <t>Eclipse Workspace</t>
   </si>
 </sst>
 </file>
@@ -2159,7 +2180,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2245,6 +2266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2583,7 +2608,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2605,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2613,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2621,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2629,44 +2654,44 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2689,8 +2714,8 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2708,17 +2733,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="19" customFormat="1">
@@ -2739,26 +2764,26 @@
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2771,51 +2796,51 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="40"/>
+      <c r="A17" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="40"/>
+      <c r="A23" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="42"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="B27" s="40"/>
+      <c r="A27" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2823,57 +2848,57 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="B31" s="36"/>
+      <c r="A31" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="38"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="36"/>
+      <c r="A34" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="38"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="26"/>
       <c r="B36" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="26"/>
       <c r="B37" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2903,11 +2928,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2925,354 +2950,376 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="37"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="39" t="s">
+      <c r="A3" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="39"/>
+    </row>
+    <row r="5" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="42"/>
+    </row>
+    <row r="7" spans="1:2" s="36" customFormat="1">
+      <c r="A7" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="40"/>
-    </row>
-    <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="5" t="s">
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90">
-      <c r="A8" s="42" t="s">
+    <row r="12" spans="1:2" ht="90">
+      <c r="A12" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="42"/>
-      <c r="B9" s="9" t="s">
+    <row r="13" spans="1:2" ht="60">
+      <c r="A13" s="44"/>
+      <c r="B13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="240">
+      <c r="A16" s="44"/>
+      <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="225">
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="315">
+      <c r="A21" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="240">
-      <c r="A12" s="42"/>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="225">
-      <c r="A15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="22" spans="1:2" ht="135">
+      <c r="A22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="315">
-      <c r="A17" s="30" t="s">
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="135">
-      <c r="A18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="12" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="90">
-      <c r="A34" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="75">
-      <c r="A35" s="38"/>
-      <c r="B35" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A37" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="90">
+      <c r="A38" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75">
+      <c r="A39" s="40"/>
+      <c r="B39" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A41" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="42"/>
+    </row>
+    <row r="42" spans="1:2" ht="135">
+      <c r="A42" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="120">
+      <c r="A43" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>280</v>
-      </c>
-      <c r="B37" s="40"/>
-    </row>
-    <row r="38" spans="1:2" ht="135">
-      <c r="A38" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="120">
-      <c r="A39" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="29" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="29" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="29" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>300</v>
+      <c r="A47" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
@@ -3308,17 +3355,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -3329,7 +3376,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3337,31 +3384,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="38"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="38"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="38"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3371,7 +3418,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
@@ -3379,7 +3426,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3428,40 +3475,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
@@ -3481,15 +3528,15 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="42" t="s">
-        <v>239</v>
+      <c r="A10" s="44" t="s">
+        <v>235</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="31" t="s">
         <v>16</v>
       </c>
@@ -3515,7 +3562,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60">
@@ -3523,343 +3570,348 @@
         <v>22</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="31" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="43" t="s">
-        <v>137</v>
+      <c r="A21" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="43"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="43"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="45"/>
+      <c r="B27" s="31" t="s">
         <v>142</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="43"/>
-      <c r="B27" s="31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75">
       <c r="A28" s="33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="31" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="45"/>
+      <c r="B34" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="31" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="43" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="43"/>
-      <c r="B34" s="31" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="43" t="s">
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="40"/>
+      <c r="B38" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="31" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="40" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="B39" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="40"/>
+      <c r="B40" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="38"/>
-      <c r="B38" s="31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="38"/>
-      <c r="B40" s="31" t="s">
-        <v>165</v>
-      </c>
-    </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="38"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="40"/>
+      <c r="B50" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="75">
+      <c r="A51" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="90">
+      <c r="A52" s="44"/>
+      <c r="B52" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="31" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="44"/>
+      <c r="B53" s="31" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="38"/>
-      <c r="B50" s="31" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="42"/>
-      <c r="B52" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="42"/>
-      <c r="B53" s="31" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="75">
       <c r="A55" s="31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="38" t="s">
-        <v>190</v>
+      <c r="A56" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="38"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
       <c r="A58" s="31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A37:A38"/>
@@ -3869,11 +3921,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3889,9 +3936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3909,125 +3956,125 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="45" t="s">
-        <v>202</v>
+      <c r="A9" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="49"/>
+      <c r="B15" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="47"/>
-      <c r="B15" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="48"/>
+      <c r="B20" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="17" t="s">
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" s="46"/>
+      <c r="B22" s="17" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="46"/>
-      <c r="B20" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="44"/>
-      <c r="B22" s="17" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4072,55 +4119,55 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="24" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="24" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4160,111 +4207,111 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
-      <c r="A12" s="48" t="s">
-        <v>264</v>
+      <c r="A12" s="50" t="s">
+        <v>260</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="48" t="s">
-        <v>269</v>
+      <c r="A15" s="50" t="s">
+        <v>265</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="49"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4309,47 +4356,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="42"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="306">
   <si>
     <t>Topics</t>
   </si>
@@ -1078,9 +1078,6 @@
 });</t>
   </si>
   <si>
-    <t>thenAnswer(..) - this is used for argument matchig means return different values based on arguments to method being mocked</t>
-  </si>
-  <si>
     <t>Mockito.verify()</t>
   </si>
   <si>
@@ -1263,9 +1260,6 @@
   <si>
     <t>1. To mock static methods in mock framework
 2. Mockito uses the proxy pattern to facilitate mocking. Powermock uses a custom class loader and byte code manipulation to add these extra capabilities. When using these two frameworks in conjunction my preference is to leverage Mockito directly as much as possible and only use power mock for your exceptional requirements.</t>
-  </si>
-  <si>
-    <t>Powermock offers the capability to create stubs for static method calls. We need to declare that we want to mock static methods for the class, then perform stubbing and verification</t>
   </si>
   <si>
     <t>Steps to have powermock</t>
@@ -1986,6 +1980,13 @@
   </si>
   <si>
     <t>Eclipse Workspace</t>
+  </si>
+  <si>
+    <t>thenAnswer(..) - this is used for argument matching means return different values based on arguments to method being mocked</t>
+  </si>
+  <si>
+    <t>Powermock offers the capability to create stubs for static method calls. 
+We need to declare that we want to mock static methods for the class, then perform stubbing and verification</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2266,6 +2267,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2608,7 +2613,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2630,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2638,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2646,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2654,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2662,7 +2667,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2670,7 +2675,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2678,7 +2683,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2686,12 +2691,12 @@
         <v>103</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2711,11 +2716,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2733,194 +2738,104 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
+      <c r="A2" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="19" customFormat="1">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="19" customFormat="1">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="19" customFormat="1">
-      <c r="A6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="19" customFormat="1"/>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="42"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
+      <c r="A3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B3" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="42"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="44"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="42"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="42"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="38"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A12" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="40"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="37" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="38"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B19" s="40"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>258</v>
+    <row r="23" spans="1:2">
+      <c r="A23" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A28:A29"/>
+  <mergeCells count="5">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A1" display="Up"/>
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B28" r:id="rId2"/>
-    <hyperlink ref="B35" r:id="rId3"/>
-    <hyperlink ref="B38" r:id="rId4"/>
-    <hyperlink ref="B36" r:id="rId5"/>
-    <hyperlink ref="B37" r:id="rId6"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B22" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2928,11 +2843,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2950,384 +2865,436 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="41"/>
     </row>
     <row r="5" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="42"/>
+      <c r="A6" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2" s="36" customFormat="1">
       <c r="A7" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="44"/>
+    </row>
+    <row r="10" spans="1:2" s="38" customFormat="1">
+      <c r="A10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="38" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="38" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="38" customFormat="1">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="38" customFormat="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:2" s="38" customFormat="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+    </row>
+    <row r="16" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A17" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="90">
-      <c r="A12" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60">
-      <c r="A13" s="44"/>
-      <c r="B13" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
-      <c r="A15" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="240">
-      <c r="A16" s="44"/>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B17" s="44"/>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="46"/>
+      <c r="B21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75">
+      <c r="A23" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="240">
+      <c r="A24" s="46"/>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="225">
-      <c r="A19" s="5" t="s">
+    <row r="27" spans="1:2" ht="225">
+      <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="5" t="s">
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="315">
-      <c r="A21" s="30" t="s">
+    <row r="29" spans="1:2" ht="315">
+      <c r="A29" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="135">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="135">
-      <c r="A22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>107</v>
+      <c r="B32" s="35" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
       <c r="A34" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="60">
+        <v>117</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
       <c r="A35" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="90">
-      <c r="A38" s="40" t="s">
+    <row r="46" spans="1:2" ht="90">
+      <c r="A46" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="75">
+      <c r="A47" s="42"/>
+      <c r="B47" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75">
-      <c r="A39" s="40"/>
-      <c r="B39" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A41" s="41" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A49" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" s="44"/>
+    </row>
+    <row r="50" spans="1:2" ht="135">
+      <c r="A50" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B41" s="42"/>
-    </row>
-    <row r="42" spans="1:2" ht="135">
-      <c r="A42" s="28" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="120">
+      <c r="A51" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B51" s="29" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="120">
-      <c r="A43" s="29" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B52" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="29" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="29" t="s">
+      <c r="B53" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B54" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="29" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B56" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="29" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B57" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="29" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B58" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="29" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B59" s="30" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3337,7 +3304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3355,17 +3322,38 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="44"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="4" t="s">
@@ -3376,7 +3364,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3384,31 +3372,31 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -3418,7 +3406,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
@@ -3426,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3438,14 +3426,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'Easy Mock'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3453,11 +3444,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3475,10 +3466,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -3488,439 +3479,500 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+    </row>
+    <row r="6" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="44"/>
+    </row>
+    <row r="7" spans="1:2" s="38" customFormat="1">
+      <c r="A7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="38" customFormat="1">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="38" customFormat="1">
+      <c r="A9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+    </row>
+    <row r="11" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:2" s="38" customFormat="1">
+      <c r="A12" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="38" customFormat="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+    </row>
+    <row r="14" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B16" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="16" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="31" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="44" t="s">
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90">
+      <c r="A24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="105">
+      <c r="A32" s="47"/>
+      <c r="B32" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90">
-      <c r="A14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="105">
-      <c r="A22" s="45"/>
-      <c r="B22" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="45"/>
-      <c r="B23" s="31" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="47"/>
+      <c r="B33" s="31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B34" s="31" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="33" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="45" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B36" s="31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="45"/>
-      <c r="B27" s="31" t="s">
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="47"/>
+      <c r="B37" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75">
-      <c r="A28" s="33" t="s">
+    <row r="38" spans="1:2" ht="75">
+      <c r="A38" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B38" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="33" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B39" s="31" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="A30" s="45" t="s">
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B40" s="31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="31" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="33" t="s">
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B42" s="31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="45" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="45"/>
-      <c r="B34" s="31" t="s">
+      <c r="B43" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="47"/>
+      <c r="B44" s="31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="45" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B45" s="31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="31" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="47"/>
+      <c r="B46" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="40" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="42"/>
+      <c r="B48" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="40"/>
-      <c r="B38" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="40" t="s">
+      <c r="B49" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="42"/>
+      <c r="B50" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="31" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="31" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="40"/>
-      <c r="B40" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="31" t="s">
+      <c r="B52" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="31" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="31" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="31" t="s">
+      <c r="B53" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="40"/>
-      <c r="B50" s="31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="75">
-      <c r="A51" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="90">
-      <c r="A52" s="44"/>
-      <c r="B52" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="44"/>
-      <c r="B53" s="31" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="31" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B54" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" s="42"/>
+      <c r="B60" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="75">
+      <c r="A61" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="90">
+      <c r="A62" s="46"/>
+      <c r="B62" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="46"/>
+      <c r="B63" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="75">
+      <c r="A65" s="31" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="75">
-      <c r="A55" s="31" t="s">
+      <c r="B65" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="31" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="45">
+      <c r="A66" s="42" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="40" t="s">
+      <c r="B66" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="120">
-      <c r="A57" s="40"/>
-      <c r="B57" s="31" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="31" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="120">
+      <c r="A67" s="42"/>
+      <c r="B67" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="31" t="s">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="31" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="31" t="s">
+      <c r="B69" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="31" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="31" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="31" t="s">
+      <c r="B70" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>194</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="16">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3936,9 +3988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3956,125 +4008,125 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="48"/>
-      <c r="B10" s="16" t="s">
-        <v>200</v>
+      <c r="A10" s="50"/>
+      <c r="B10" s="37" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="120">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" s="51" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="49" t="s">
+      <c r="B14" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="51"/>
+      <c r="B15" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="17" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="120">
+      <c r="A16" s="51"/>
+      <c r="B16" s="17" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="49"/>
-      <c r="B15" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="49"/>
-      <c r="B16" s="17" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="48" t="s">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="50"/>
+      <c r="B20" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="48"/>
-      <c r="B20" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="17" t="s">
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" s="48"/>
+      <c r="B22" s="17" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="46"/>
-      <c r="B22" s="17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4119,16 +4171,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4148,26 +4200,26 @@
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
       <c r="A11" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>254</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4207,24 +4259,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -4259,59 +4311,59 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="75">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="25" t="s">
         <v>260</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="25" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B15" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="50" t="s">
-        <v>274</v>
+      <c r="A17" s="52" t="s">
+        <v>272</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="53"/>
+      <c r="B19" s="25" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="25" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="25" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4356,47 +4408,47 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="44"/>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,25 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Materials" sheetId="9" r:id="rId2"/>
-    <sheet name="Junit" sheetId="2" r:id="rId3"/>
-    <sheet name="Easy Mock" sheetId="3" r:id="rId4"/>
-    <sheet name="Mockito" sheetId="4" r:id="rId5"/>
-    <sheet name="PowerMock" sheetId="5" r:id="rId6"/>
-    <sheet name="Spring+Junit" sheetId="6" r:id="rId7"/>
-    <sheet name="SpringBootJunit" sheetId="7" r:id="rId8"/>
-    <sheet name="DBUnit" sheetId="8" r:id="rId9"/>
+    <sheet name="Junit" sheetId="2" r:id="rId2"/>
+    <sheet name="Easy Mock" sheetId="3" r:id="rId3"/>
+    <sheet name="Mockito" sheetId="4" r:id="rId4"/>
+    <sheet name="PowerMock" sheetId="5" r:id="rId5"/>
+    <sheet name="Spring+Junit" sheetId="6" r:id="rId6"/>
+    <sheet name="SpringBootJunit" sheetId="7" r:id="rId7"/>
+    <sheet name="DBUnit" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="312">
   <si>
     <t>Topics</t>
   </si>
@@ -40,9 +39,6 @@
   </si>
   <si>
     <t>Power Mock</t>
-  </si>
-  <si>
-    <t>Material Links</t>
   </si>
   <si>
     <t>Level 1 doc</t>
@@ -1406,9 +1402,6 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>PowerMock</t>
-  </si>
-  <si>
     <t>What is DBUnit</t>
   </si>
   <si>
@@ -1440,9 +1433,6 @@
   </si>
   <si>
     <t>Mock implementation of getPrice method of StockService interface, for googleStock, return 50.00 as price</t>
-  </si>
-  <si>
-    <t>EasyMock</t>
   </si>
   <si>
     <t>To inject above created mock object into another object</t>
@@ -1703,9 +1693,6 @@
   </si>
   <si>
     <t>refer src/test/java -&gt; spring.boot.hello.world.HelloWorldIntegrationTest in SpringBootPractice project</t>
-  </si>
-  <si>
-    <t>Spring Boot Junit</t>
   </si>
   <si>
     <t>SpringBootPractice</t>
@@ -1987,6 +1974,36 @@
   <si>
     <t>Powermock offers the capability to create stubs for static method calls. 
 We need to declare that we want to mock static methods for the class, then perform stubbing and verification</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>Example 3</t>
+  </si>
+  <si>
+    <t>Eclipse workspace</t>
+  </si>
+  <si>
+    <t>Tutorialspoint</t>
+  </si>
+  <si>
+    <t>Above material as pdf</t>
+  </si>
+  <si>
+    <t>Not created any project. If creating new - create in Eclipse workspace</t>
+  </si>
+  <si>
+    <t>Github Repository Link</t>
+  </si>
+  <si>
+    <t>Github Repository download link</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/EasyMockPractice/archive/master.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/EasyMockPractice.git</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2198,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2275,25 +2292,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2302,11 +2317,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2609,7 +2627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2635,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2643,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2651,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2659,44 +2677,39 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2708,7 +2721,6 @@
     <hyperlink ref="A6" location="'Spring+Junit'!A1" display="Spring Junit"/>
     <hyperlink ref="A7" location="SpringBootJunit!A1" display="Spring Boot + Junit"/>
     <hyperlink ref="A9" location="DBUnit!A1" display="DBUnit"/>
-    <hyperlink ref="A10" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2716,138 +2728,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="2" max="2" width="109" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="44"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="44"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="44"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="40"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="Materials!A1" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B23" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B7"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2866,344 +2751,359 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="42" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="42" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A8" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="44"/>
+    </row>
+    <row r="9" spans="1:2" s="36" customFormat="1">
+      <c r="A9" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:2" s="38" customFormat="1">
+      <c r="A12" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="44"/>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="44"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="41"/>
-    </row>
-    <row r="5" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" s="44"/>
-    </row>
-    <row r="7" spans="1:2" s="36" customFormat="1">
-      <c r="A7" s="36" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-    </row>
-    <row r="9" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="44"/>
-    </row>
-    <row r="10" spans="1:2" s="38" customFormat="1">
-      <c r="A10" s="12" t="s">
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="46"/>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="240">
+      <c r="A21" s="46"/>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="225">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="315">
+      <c r="A26" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="135">
+      <c r="A27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="38" customFormat="1">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="38" customFormat="1">
-      <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="38" customFormat="1">
-      <c r="A13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B30" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="38" customFormat="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-    </row>
-    <row r="15" spans="1:2" s="38" customFormat="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-    </row>
-    <row r="16" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="44"/>
-    </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="46"/>
-      <c r="B21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="240">
-      <c r="A24" s="46"/>
-      <c r="B24" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="225">
-      <c r="A27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="315">
-      <c r="A29" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="135">
-      <c r="A30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
-      <c r="A34" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
+    <row r="36" spans="1:2" ht="60">
       <c r="A36" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="45">
+        <v>103</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>299</v>
+        <v>105</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="60">
-      <c r="A39" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="B41" s="12" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="60">
-      <c r="A43" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="90">
-      <c r="A46" s="42" t="s">
+    <row r="43" spans="1:2" ht="90">
+      <c r="A43" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="45"/>
+      <c r="B44" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="75">
-      <c r="A47" s="42"/>
-      <c r="B47" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A49" s="43" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A46" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="44"/>
+    </row>
+    <row r="47" spans="1:2" ht="135">
+      <c r="A47" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="120">
+      <c r="A48" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="B49" s="44"/>
-    </row>
-    <row r="50" spans="1:2" ht="135">
-      <c r="A50" s="28" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B49" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="120">
+      <c r="B50" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
         <v>277</v>
       </c>
@@ -3213,98 +3113,73 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="29" t="s">
+      <c r="A56" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Junit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3323,132 +3198,174 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="43" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="44"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="41" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2" s="42" customFormat="1">
+      <c r="A4" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="4" t="s">
+    <row r="5" spans="1:2" s="42" customFormat="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="44"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+    </row>
+    <row r="11" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="44"/>
+    </row>
+    <row r="12" spans="1:2" s="42" customFormat="1">
+      <c r="A12" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="44"/>
-    </row>
-    <row r="11" spans="1:2" ht="45">
-      <c r="A11" s="4" t="s">
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="20" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="42" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="45"/>
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="42"/>
-      <c r="B13" s="4" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="4" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="4" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="4" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="4" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="B23" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="'Easy Mock'!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3465,537 +3382,533 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="43" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:2" s="38" customFormat="1">
+      <c r="A3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="38" customFormat="1">
+      <c r="A4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="38" customFormat="1">
+      <c r="A5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+    </row>
+    <row r="7" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="44"/>
+    </row>
+    <row r="8" spans="1:2" s="38" customFormat="1">
+      <c r="A8" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+    </row>
+    <row r="10" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="44"/>
+    </row>
+    <row r="11" spans="1:2" s="42" customFormat="1">
+      <c r="A11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-    </row>
-    <row r="6" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="44"/>
-    </row>
-    <row r="7" spans="1:2" s="38" customFormat="1">
-      <c r="A7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="38" customFormat="1">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="12" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A13" s="43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" s="38" customFormat="1">
-      <c r="A9" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-    </row>
-    <row r="11" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="B11" s="44"/>
-    </row>
-    <row r="12" spans="1:2" s="38" customFormat="1">
-      <c r="A12" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="38" customFormat="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-    </row>
-    <row r="14" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="43" t="s">
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="44"/>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B14" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60">
+      <c r="A15" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>196</v>
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="46"/>
       <c r="B19" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="46" t="s">
-        <v>233</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="B21" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="31" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
-        <v>19</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90">
-      <c r="A24" s="32" t="s">
-        <v>21</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="31" t="s">
+        <v>125</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="34" t="s">
-        <v>22</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31" t="s">
-        <v>127</v>
-      </c>
+      <c r="A27" s="45"/>
       <c r="B27" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="42" t="s">
-        <v>110</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60">
+      <c r="A28" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="47" t="s">
+        <v>132</v>
+      </c>
       <c r="B29" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="33" t="s">
-        <v>132</v>
-      </c>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="105">
+      <c r="A30" s="47"/>
       <c r="B30" s="31" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="47" t="s">
-        <v>133</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="47"/>
       <c r="B31" s="31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:2">
+      <c r="A32" s="33" t="s">
+        <v>135</v>
+      </c>
       <c r="B32" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="47"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="33" t="s">
+        <v>137</v>
+      </c>
       <c r="B33" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="33" t="s">
-        <v>136</v>
+      <c r="A34" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="33" t="s">
-        <v>138</v>
-      </c>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="47"/>
       <c r="B35" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="47" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="75">
+      <c r="A36" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="47"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="B37" s="31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="75">
-      <c r="A38" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="47"/>
+      <c r="B39" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="47"/>
+      <c r="A41" s="47" t="s">
+        <v>151</v>
+      </c>
       <c r="B41" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="60">
-      <c r="A42" s="33" t="s">
-        <v>149</v>
-      </c>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="47"/>
       <c r="B42" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="47"/>
       <c r="B44" s="31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="47"/>
+      <c r="A45" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="45"/>
       <c r="B46" s="31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="13" t="s">
         <v>157</v>
       </c>
     </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="42"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30">
-      <c r="A49" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="31" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="45"/>
+      <c r="B49" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="31" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="42"/>
       <c r="B50" s="31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="42"/>
-      <c r="B51" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="A51" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
       <c r="A52" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="31" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30">
+      <c r="A57" s="45" t="s">
+        <v>234</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="31" t="s">
-        <v>173</v>
-      </c>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="45"/>
       <c r="B58" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30">
-      <c r="A59" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="75">
+      <c r="A59" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="90">
+      <c r="A60" s="46"/>
+      <c r="B60" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45">
+      <c r="A61" s="46"/>
+      <c r="B61" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="75">
+      <c r="A63" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="120">
+      <c r="A65" s="45"/>
+      <c r="B65" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="42"/>
-      <c r="B60" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="75">
-      <c r="A61" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="46"/>
-      <c r="B62" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="46"/>
-      <c r="B63" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
-      <c r="A64" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="75">
-      <c r="A65" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="45">
-      <c r="A66" s="42" t="s">
-        <v>185</v>
+    </row>
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="120">
-      <c r="A67" s="42"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="B67" s="31" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30">
       <c r="A68" s="31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="31" t="s">
         <v>192</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
+    <col min="1" max="1" width="60" style="40" customWidth="1"/>
     <col min="2" max="2" width="103.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4008,135 +3921,173 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="40"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="40"/>
-    </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" s="49" t="s">
+      <c r="A2" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="42" customFormat="1">
+      <c r="A5" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="49"/>
+    </row>
+    <row r="6" spans="1:2" s="42" customFormat="1" ht="30">
+      <c r="A6" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="42" customFormat="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+    </row>
+    <row r="8" spans="1:2" s="42" customFormat="1">
+      <c r="A8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="49"/>
+    </row>
+    <row r="9" spans="1:2" s="42" customFormat="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="16" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="45"/>
+      <c r="B15" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="120">
+      <c r="A16" s="40" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="50"/>
-      <c r="B10" s="37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="120">
-      <c r="A11" t="s">
+      <c r="B16" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B17" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="46" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="75">
-      <c r="A14" s="51" t="s">
+      <c r="B19" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="17" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="46"/>
+      <c r="B20" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="51"/>
-      <c r="B15" s="17" t="s">
+    <row r="21" spans="1:2" ht="120">
+      <c r="A21" s="46"/>
+      <c r="B21" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="120">
-      <c r="A16" s="51"/>
-      <c r="B16" s="17" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="40" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="17" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="40" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="17" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="45" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="50" t="s">
+      <c r="B24" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="45"/>
+      <c r="B25" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="47" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="50"/>
-      <c r="B20" s="17" t="s">
+      <c r="B26" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90">
+      <c r="A27" s="47"/>
+      <c r="B27" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="48"/>
-      <c r="B22" s="17" t="s">
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="40" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>220</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A21:A22"/>
+  <mergeCells count="8">
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="PowerMock!A2" display="Up"/>
@@ -4147,13 +4098,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4171,77 +4122,138 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="40"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A2" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="42" customFormat="1">
+      <c r="A5" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="42" customFormat="1">
+      <c r="A6" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="42" customFormat="1"/>
+    <row r="8" spans="1:2" s="42" customFormat="1">
+      <c r="A8" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="49"/>
+    </row>
+    <row r="9" spans="1:2" s="42" customFormat="1" ht="30">
+      <c r="A9" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="42" customFormat="1"/>
+    <row r="11" spans="1:2" s="42" customFormat="1">
+      <c r="A11" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="49"/>
+    </row>
+    <row r="12" spans="1:2" s="42" customFormat="1"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B17" t="s">
         <v>94</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="23" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="24" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="B20" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>254</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
     <hyperlink ref="B1" location="'Spring+Junit'!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4259,138 +4271,170 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="40"/>
+      <c r="A2" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="42" customFormat="1"/>
+    <row r="5" spans="1:2" s="42" customFormat="1">
+      <c r="A5" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="49"/>
+    </row>
+    <row r="6" spans="1:2" s="42" customFormat="1" ht="30">
+      <c r="A6" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="49"/>
+    </row>
+    <row r="9" spans="1:2" s="42" customFormat="1">
+      <c r="A9" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="42" customFormat="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="49"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="75">
-      <c r="A12" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="25" t="s">
-        <v>270</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="SpringBootJunit!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4409,53 +4453,62 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="43" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="B2" s="44"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="44"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="44"/>
-    </row>
-    <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="42" customFormat="1"/>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="44"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:2" ht="30">
       <c r="A13" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="DBUnit!A2" display="Up"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -3870,22 +3870,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A45:A46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="316">
   <si>
     <t>Topics</t>
   </si>
@@ -1089,9 +1089,6 @@
     <t>VerificationSettings.times(n)</t>
   </si>
   <si>
-    <t>How many time mock method being called in method under test</t>
-  </si>
-  <si>
     <t>atLeastOnce()</t>
   </si>
   <si>
@@ -1244,11 +1241,6 @@
   </si>
   <si>
     <t>Mockito limitations</t>
-  </si>
-  <si>
-    <t>1. we cant mock final methods. You can stub the call and the runtime will not complain, but we will receive an assertion failure if you expect the mocked result to be returned
-2. We cant mock private methods.
-3. we cannot mock static methods</t>
   </si>
   <si>
     <t>Why Powermock</t>
@@ -1601,22 +1593,7 @@
     </r>
   </si>
   <si>
-    <t>Mockito.mock(mockOrderDao.insert(Mockito.any(OrderEntity.class)) ).thenReturn(1);
-// original method in which orderDao.insert(orderEntity) is getting called
-String orderNumber = this.target.openNewOrder(1);
-ArgumentCaptor&lt;OrderEntity&gt; orderEntityCaptor = ArgumentCaptor.forClass(OrderEntity.class);
-Mockito.verify(mockOrderDao).insert(orderEntityCaptor.capture() );
-OrderEntity orderEntity = orderEntityCaptor.getValue();
-Assert.assertEqual(1, orderEntity.getCustomerId() );</t>
-  </si>
-  <si>
     <t>Junit Materials</t>
-  </si>
-  <si>
-    <t>Easy Mock Materials</t>
-  </si>
-  <si>
-    <t>Mockito Materials</t>
   </si>
   <si>
     <t>Power Mock Materials</t>
@@ -2004,6 +1981,93 @@
   </si>
   <si>
     <t>https://github.com/avinashbabudonthu/EasyMockPractice.git</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot mock final methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. You can stub the call and the runtime will not complain, but we will receive an assertion failure if you expect the mocked result to be returned
+2. We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot mock private methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+3. we</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cannot mock static methods</t>
+    </r>
+  </si>
+  <si>
+    <t>How many times mock method being called in method under test</t>
+  </si>
+  <si>
+    <t>Mockito.mock(mockOrderDao.insert(Mockito.any(OrderEntity.class)) ).thenReturn(1);
+// original method in which orderDao.insert(orderEntity) is getting called. With id=1 OrderEntity object will be created
+String orderNumber = this.target.openNewOrder(1);
+ArgumentCaptor&lt;OrderEntity&gt; orderEntityCaptor = ArgumentCaptor.forClass(OrderEntity.class);
+Mockito.verify(mockOrderDao).insert(orderEntityCaptor.capture() );
+OrderEntity orderEntity = orderEntityCaptor.getValue();
+Assert.assertEqual(1, orderEntity.getCustomerId() );</t>
+  </si>
+  <si>
+    <t>Jmock</t>
+  </si>
+  <si>
+    <t>http://jmock.org</t>
+  </si>
+  <si>
+    <t>http://easymock.org</t>
+  </si>
+  <si>
+    <t>https://github.com/mockito/mockito</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\MockitoPractice</t>
+  </si>
+  <si>
+    <t>Local path</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2262,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2302,6 +2366,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2331,6 +2401,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2627,11 +2701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2653,23 +2727,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>239</v>
+      <c r="B3" s="27" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>240</v>
+      <c r="B4" s="27" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2677,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2685,7 +2759,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2693,7 +2767,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2701,7 +2775,7 @@
         <v>88</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2709,7 +2783,15 @@
         <v>102</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2721,6 +2803,9 @@
     <hyperlink ref="A6" location="'Spring+Junit'!A1" display="Spring Junit"/>
     <hyperlink ref="A7" location="SpringBootJunit!A1" display="Spring Boot + Junit"/>
     <hyperlink ref="A9" location="DBUnit!A1" display="DBUnit"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2750,10 +2835,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -2789,17 +2874,17 @@
     </row>
     <row r="7" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="44"/>
+      <c r="A8" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:2" s="36" customFormat="1">
       <c r="A9" s="36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
@@ -2807,17 +2892,17 @@
       <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="1:2" s="38" customFormat="1">
       <c r="A12" s="42" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
@@ -2825,10 +2910,10 @@
       <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="46"/>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="5" t="s">
@@ -2847,7 +2932,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2855,7 +2940,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="46"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="9" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +2954,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2877,7 +2962,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="240">
-      <c r="A21" s="46"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
@@ -2916,7 +3001,7 @@
     </row>
     <row r="26" spans="1:2" ht="315">
       <c r="A26" s="30" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>75</v>
@@ -2940,10 +3025,10 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="35" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2975,7 +3060,7 @@
         <v>118</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
@@ -2983,7 +3068,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3051,104 +3136,104 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="90">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75">
+      <c r="A44" s="47"/>
+      <c r="B44" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="45"/>
-      <c r="B44" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A46" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="B46" s="44"/>
+      <c r="A46" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="1:2" ht="135">
       <c r="A47" s="28" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="120">
       <c r="A48" s="29" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="29" t="s">
         <v>275</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="29" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="30" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3177,9 +3262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3197,14 +3282,14 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="39" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>24</v>
@@ -3212,7 +3297,7 @@
     </row>
     <row r="4" spans="1:2" s="42" customFormat="1">
       <c r="A4" s="40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -3224,17 +3309,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="40" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
@@ -3242,33 +3327,33 @@
       <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="1:2" s="42" customFormat="1">
       <c r="A12" s="40" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="40" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="46"/>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="4" t="s">
@@ -3279,7 +3364,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3287,31 +3372,31 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3321,7 +3406,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
@@ -3329,7 +3414,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3361,17 +3446,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="136.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -3383,10 +3468,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" s="38" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -3417,17 +3502,17 @@
       <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1">
       <c r="A8" s="38" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
@@ -3435,457 +3520,464 @@
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:2" s="42" customFormat="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="56" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="43" t="s">
+    <row r="12" spans="1:2" s="42" customFormat="1">
+      <c r="A12" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A13" s="37"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="44"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="B14" s="46"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="16" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="60">
-      <c r="A15" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="31" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" s="31" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="31" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="48"/>
+      <c r="B20" s="31" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B22" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90">
-      <c r="A22" s="32" t="s">
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B23" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="34" t="s">
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="31" t="s">
+      <c r="B24" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B25" s="31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="31" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B26" s="31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="45" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B27" s="31" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="31" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="31" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60">
-      <c r="A28" s="33" t="s">
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="47" t="s">
+      <c r="B29" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B30" s="31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="105">
-      <c r="A30" s="47"/>
-      <c r="B30" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:2" ht="105">
+      <c r="A31" s="49"/>
       <c r="B31" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="31" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B34" s="31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="47" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
-      <c r="A35" s="47"/>
-      <c r="B35" s="31" t="s">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="49"/>
+      <c r="B36" s="31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75">
-      <c r="A36" s="33" t="s">
+    <row r="37" spans="1:2" ht="75">
+      <c r="A37" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B37" s="31" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="33" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B38" s="31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="47" t="s">
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B39" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="31" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="49"/>
+      <c r="B40" s="31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="33" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B41" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="47" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="47"/>
       <c r="B42" s="31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="49"/>
+      <c r="B43" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="47" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B44" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="31" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="49"/>
+      <c r="B45" s="31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="13" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45">
-      <c r="A46" s="45"/>
-      <c r="B46" s="31" t="s">
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="47"/>
+      <c r="B47" s="31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
-      <c r="A47" s="45" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B48" s="31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="45"/>
-      <c r="B48" s="31" t="s">
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="47"/>
+      <c r="B49" s="31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>162</v>
+      <c r="A50" s="47"/>
+      <c r="B50" s="15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>163</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30">
-      <c r="A52" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="31" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30">
-      <c r="A57" s="45" t="s">
+    <row r="59" spans="1:2" ht="45">
+      <c r="A59" s="47"/>
+      <c r="B59" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="75">
+      <c r="A60" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="45"/>
-      <c r="B58" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="46" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="90">
+      <c r="A61" s="48"/>
+      <c r="B61" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="46"/>
-      <c r="B60" s="31" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="48"/>
+      <c r="B62" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45">
-      <c r="A61" s="46"/>
-      <c r="B61" s="31" t="s">
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" s="31" t="s">
+      <c r="B63" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="75">
+      <c r="A64" s="31" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="75">
-      <c r="A63" s="31" t="s">
+      <c r="B64" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="B63" s="37" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="47" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="45">
-      <c r="A64" s="45" t="s">
+      <c r="B65" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="120">
-      <c r="A65" s="45"/>
-      <c r="B65" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30">
-      <c r="A66" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>188</v>
+    </row>
+    <row r="66" spans="1:2" ht="135">
+      <c r="A66" s="47"/>
+      <c r="B66" s="43" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B67" s="31" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="30">
+      <c r="A69" s="31" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="31" t="s">
+      <c r="B69" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -3921,10 +4013,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="40" t="s">
@@ -3935,17 +4027,17 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="42" customFormat="1">
-      <c r="A5" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="49"/>
+      <c r="A5" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" s="42" customFormat="1" ht="30">
       <c r="A6" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="42" customFormat="1">
@@ -3953,129 +4045,129 @@
       <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2" s="42" customFormat="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2" s="42" customFormat="1">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="51"/>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="50" t="s">
-        <v>196</v>
+      <c r="A14" s="52" t="s">
+        <v>194</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="37" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120">
       <c r="A16" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="75">
+      <c r="A19" s="48" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="46" t="s">
+      <c r="B19" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="48"/>
+      <c r="B20" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="120">
+      <c r="A21" s="48"/>
+      <c r="B21" s="17" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="46"/>
-      <c r="B20" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="120">
-      <c r="A21" s="46"/>
-      <c r="B21" s="17" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="45" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="47"/>
+      <c r="B25" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="45"/>
-      <c r="B25" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="17" t="s">
+    <row r="27" spans="1:2" ht="90">
+      <c r="A27" s="49"/>
+      <c r="B27" s="17" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="90">
-      <c r="A27" s="47"/>
-      <c r="B27" s="17" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4122,10 +4214,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="42" t="s">
@@ -4137,7 +4229,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="42" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>68</v>
@@ -4145,7 +4237,7 @@
     </row>
     <row r="5" spans="1:2" s="42" customFormat="1">
       <c r="A5" s="42" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>69</v>
@@ -4153,40 +4245,40 @@
     </row>
     <row r="6" spans="1:2" s="42" customFormat="1">
       <c r="A6" s="26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="42" customFormat="1"/>
     <row r="8" spans="1:2" s="42" customFormat="1">
-      <c r="A8" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="49"/>
+      <c r="A8" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2" s="42" customFormat="1" ht="30">
       <c r="A9" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="42" customFormat="1"/>
     <row r="11" spans="1:2" s="42" customFormat="1">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" spans="1:2" s="42" customFormat="1"/>
     <row r="15" spans="1:2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="51"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
@@ -4206,26 +4298,26 @@
     </row>
     <row r="18" spans="1:2" ht="45">
       <c r="A18" s="24" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
       <c r="A20" s="24" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4271,10 +4363,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4286,39 +4378,39 @@
     </row>
     <row r="4" spans="1:2" s="42" customFormat="1"/>
     <row r="5" spans="1:2" s="42" customFormat="1">
-      <c r="A5" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="49"/>
+      <c r="A5" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" s="42" customFormat="1" ht="30">
       <c r="A6" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2" s="42" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="42" customFormat="1"/>
     <row r="12" spans="1:2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -4353,59 +4445,59 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="51" t="s">
-        <v>255</v>
+      <c r="A17" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="25" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" s="25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="53"/>
+      <c r="B21" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="51" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="25" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="54"/>
+      <c r="B24" s="25" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="25" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4452,10 +4544,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
@@ -4468,40 +4560,40 @@
     <row r="5" spans="1:2" s="42" customFormat="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="46"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="46"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/d_Definitions_unit_test.xlsx
+++ b/Definitions/d_Definitions_unit_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="994" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -2372,6 +2372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2401,10 +2405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2790,7 +2790,7 @@
       <c r="A10" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="45" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2835,10 +2835,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -2874,10 +2874,10 @@
     </row>
     <row r="7" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:2" s="36" customFormat="1">
       <c r="A9" s="36" t="s">
@@ -2892,10 +2892,10 @@
       <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2" s="38" customFormat="1">
       <c r="A12" s="42" t="s">
@@ -2910,10 +2910,10 @@
       <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="5" t="s">
@@ -2932,7 +2932,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="50" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2940,7 +2940,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="48"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="9" t="s">
         <v>73</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2962,7 +2962,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="240">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
@@ -3136,7 +3136,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="90">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="49" t="s">
         <v>178</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -3144,17 +3144,17 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="47"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="48"/>
     </row>
     <row r="47" spans="1:2" ht="135">
       <c r="A47" s="28" t="s">
@@ -3262,9 +3262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3282,10 +3282,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="39" t="s">
@@ -3309,10 +3309,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="40" t="s">
@@ -3327,10 +3327,10 @@
       <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2" s="42" customFormat="1">
       <c r="A12" s="40" t="s">
@@ -3350,10 +3350,10 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="48"/>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="4" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3372,31 +3372,31 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3441,6 +3441,7 @@
     <hyperlink ref="B12" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3448,9 +3449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3468,10 +3469,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" s="38" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -3502,10 +3503,10 @@
       <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:2" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1">
       <c r="A8" s="38" t="s">
@@ -3520,13 +3521,13 @@
       <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" s="42" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2" s="42" customFormat="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="46" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -3545,10 +3546,10 @@
       <c r="A13" s="37"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
@@ -3583,7 +3584,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="50" t="s">
         <v>228</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -3591,7 +3592,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="31" t="s">
         <v>15</v>
       </c>
@@ -3645,7 +3646,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="49" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -3653,12 +3654,12 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="31" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60">
+    <row r="29" spans="1:2" ht="45">
       <c r="A29" s="33" t="s">
         <v>131</v>
       </c>
@@ -3667,7 +3668,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="51" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -3675,13 +3676,13 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="105">
-      <c r="A31" s="49"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="49"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="31" t="s">
         <v>134</v>
       </c>
@@ -3703,7 +3704,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="51" t="s">
         <v>139</v>
       </c>
       <c r="B35" s="31" t="s">
@@ -3711,7 +3712,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="49"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="31" t="s">
         <v>141</v>
       </c>
@@ -3732,8 +3733,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="51" t="s">
         <v>145</v>
       </c>
       <c r="B39" s="31" t="s">
@@ -3741,12 +3742,12 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="49"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60">
+    <row r="41" spans="1:2" ht="45">
       <c r="A41" s="33" t="s">
         <v>148</v>
       </c>
@@ -3755,7 +3756,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="51" t="s">
         <v>151</v>
       </c>
       <c r="B42" s="31" t="s">
@@ -3763,13 +3764,13 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
-      <c r="A43" s="49"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="31" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="51" t="s">
         <v>153</v>
       </c>
       <c r="B44" s="31" t="s">
@@ -3777,13 +3778,13 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="49"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="49" t="s">
         <v>295</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -3791,13 +3792,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="47"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="31" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="49" t="s">
         <v>158</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -3805,13 +3806,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="47"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="31" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="15" t="s">
         <v>185</v>
       </c>
@@ -3873,7 +3874,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="30">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="49" t="s">
         <v>232</v>
       </c>
       <c r="B58" s="31" t="s">
@@ -3881,13 +3882,13 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="45">
-      <c r="A59" s="47"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="31" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="75">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="50" t="s">
         <v>174</v>
       </c>
       <c r="B60" s="31" t="s">
@@ -3895,18 +3896,18 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30">
+    <row r="63" spans="1:2">
       <c r="A63" s="31" t="s">
         <v>177</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="75">
+    <row r="64" spans="1:2" ht="60">
       <c r="A64" s="31" t="s">
         <v>181</v>
       </c>
@@ -3923,7 +3924,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="49" t="s">
         <v>183</v>
       </c>
       <c r="B65" s="31" t="s">
@@ -3931,7 +3932,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="135">
-      <c r="A66" s="47"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="43" t="s">
         <v>309</v>
       </c>
@@ -3962,11 +3963,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A65:A66"/>
@@ -3978,6 +3974,11 @@
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Mockito!A2" display="Up"/>
@@ -4013,10 +4014,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="40" t="s">
@@ -4027,10 +4028,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" s="42" customFormat="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="6" spans="1:2" s="42" customFormat="1" ht="30">
       <c r="A6" s="40" t="s">
@@ -4045,23 +4046,23 @@
       <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:2" s="42" customFormat="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2" s="42" customFormat="1">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="53"/>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>194</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -4069,7 +4070,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="37" t="s">
         <v>296</v>
       </c>
@@ -4099,7 +4100,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="75">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="50" t="s">
         <v>202</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -4107,13 +4108,13 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="45">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="17" t="s">
         <v>205</v>
       </c>
@@ -4135,7 +4136,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="49" t="s">
         <v>210</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -4143,13 +4144,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="47"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="51" t="s">
         <v>212</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -4157,7 +4158,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="90">
-      <c r="A27" s="49"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="17" t="s">
         <v>215</v>
       </c>
@@ -4214,10 +4215,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="42" t="s">
@@ -4253,10 +4254,10 @@
     </row>
     <row r="7" spans="1:2" s="42" customFormat="1"/>
     <row r="8" spans="1:2" s="42" customFormat="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2" s="42" customFormat="1" ht="30">
       <c r="A9" s="40" t="s">
@@ -4268,17 +4269,17 @@
     </row>
     <row r="10" spans="1:2" s="42" customFormat="1"/>
     <row r="11" spans="1:2" s="42" customFormat="1">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2" s="42" customFormat="1"/>
     <row r="15" spans="1:2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="53"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
@@ -4363,10 +4364,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4378,10 +4379,10 @@
     </row>
     <row r="4" spans="1:2" s="42" customFormat="1"/>
     <row r="5" spans="1:2" s="42" customFormat="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="6" spans="1:2" s="42" customFormat="1" ht="30">
       <c r="A6" s="40" t="s">
@@ -4392,10 +4393,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2" s="42" customFormat="1">
       <c r="A9" s="25" t="s">
@@ -4407,10 +4408,10 @@
     </row>
     <row r="10" spans="1:2" s="42" customFormat="1"/>
     <row r="12" spans="1:2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
@@ -4445,7 +4446,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="55" t="s">
         <v>250</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -4453,7 +4454,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="25" t="s">
         <v>252</v>
       </c>
@@ -4467,7 +4468,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>255</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -4475,13 +4476,13 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="55" t="s">
         <v>263</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -4489,13 +4490,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="25" t="s">
         <v>261</v>
       </c>
@@ -4544,10 +4545,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
@@ -4560,17 +4561,17 @@
     <row r="5" spans="1:2" s="42" customFormat="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="46"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="19" t="s">
